--- a/10-pivotby-function/pivotby-solutions.xlsx
+++ b/10-pivotby-function/pivotby-solutions.xlsx
@@ -5,24 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-dynamic-array-functions\10-pivotby-function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42F287-6128-4509-953D-1ED0152DCD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA74E09-8499-4DF2-AF56-E0628359A9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{9CD546EA-A036-42F8-B904-3ACF933C367C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{9CD546EA-A036-42F8-B904-3ACF933C367C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="example-sheet-1" sheetId="2" r:id="rId2"/>
-    <sheet name="example-sheet-2" sheetId="5" r:id="rId3"/>
-    <sheet name="example-sheet-3" sheetId="4" r:id="rId4"/>
-    <sheet name="example-sheet-4" sheetId="3" r:id="rId5"/>
+    <sheet name="examples" sheetId="6" r:id="rId2"/>
+    <sheet name="examples-2" sheetId="7" r:id="rId3"/>
+    <sheet name="examples-3" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="33">
   <si>
     <t>order_id</t>
   </si>
@@ -165,15 +161,6 @@
   <si>
     <t>sales</t>
   </si>
-  <si>
-    <t>Sum of sales</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
 </sst>
 </file>
 
@@ -211,31 +198,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -256,7125 +236,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="George Mount" refreshedDate="45430.840128935182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{6A8F76BC-57D7-408F-8EAF-7E3FF2835080}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="sales"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="order_id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="500"/>
-    </cacheField>
-    <cacheField name="customer_id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="200"/>
-    </cacheField>
-    <cacheField name="product_id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50"/>
-    </cacheField>
-    <cacheField name="product_name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="category" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Electronics"/>
-        <s v="Accessories"/>
-        <s v="Clothing"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="unit_price" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="992"/>
-    </cacheField>
-    <cacheField name="quantity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
-    </cacheField>
-    <cacheField name="sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="3968"/>
-    </cacheField>
-    <cacheField name="order_date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-01-01T00:00:00" maxDate="2023-01-01T00:00:00"/>
-    </cacheField>
-    <cacheField name="customer_age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="64"/>
-    </cacheField>
-    <cacheField name="customer_gender" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="country" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="500">
-  <r>
-    <n v="1"/>
-    <n v="150"/>
-    <n v="9"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-11-14T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <n v="176"/>
-    <n v="36"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-10-06T00:00:00"/>
-    <n v="23"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <n v="37"/>
-    <n v="22"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="821"/>
-    <n v="4"/>
-    <n v="3284"/>
-    <d v="2022-05-07T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="143"/>
-    <n v="42"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-05-09T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="163"/>
-    <n v="26"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="301"/>
-    <n v="1"/>
-    <n v="301"/>
-    <d v="2022-02-27T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="199"/>
-    <n v="12"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="130"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="38"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <n v="160"/>
-    <n v="17"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="251"/>
-    <n v="1"/>
-    <n v="251"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="11"/>
-    <n v="14"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="776"/>
-    <n v="3"/>
-    <n v="2328"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <n v="138"/>
-    <n v="14"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="141"/>
-    <n v="1"/>
-    <n v="141"/>
-    <d v="2022-10-17T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="78"/>
-    <n v="34"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="826"/>
-    <n v="1"/>
-    <n v="826"/>
-    <d v="2022-04-06T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <n v="77"/>
-    <n v="20"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <n v="185"/>
-    <n v="11"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-04-28T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <n v="153"/>
-    <n v="16"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="776"/>
-    <n v="1"/>
-    <n v="776"/>
-    <d v="2022-02-17T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <n v="2"/>
-    <n v="31"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="611"/>
-    <n v="4"/>
-    <n v="2444"/>
-    <d v="2022-03-30T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <n v="64"/>
-    <n v="6"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-08-25T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <n v="35"/>
-    <n v="19"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-09-29T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <n v="7"/>
-    <n v="37"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-07-08T00:00:00"/>
-    <n v="48"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <n v="85"/>
-    <n v="4"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <n v="146"/>
-    <n v="47"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="84"/>
-    <n v="3"/>
-    <n v="252"/>
-    <d v="2022-03-10T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <n v="67"/>
-    <n v="4"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-10-05T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <n v="42"/>
-    <n v="20"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-12-15T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <n v="118"/>
-    <n v="10"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="51"/>
-    <n v="1"/>
-    <n v="51"/>
-    <d v="2022-09-04T00:00:00"/>
-    <n v="48"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <n v="125"/>
-    <n v="24"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="614"/>
-    <n v="4"/>
-    <n v="2456"/>
-    <d v="2022-03-17T00:00:00"/>
-    <n v="23"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <n v="167"/>
-    <n v="35"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="611"/>
-    <n v="3"/>
-    <n v="1833"/>
-    <d v="2022-06-03T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <n v="169"/>
-    <n v="26"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-05-24T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <n v="24"/>
-    <n v="37"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="992"/>
-    <n v="1"/>
-    <n v="992"/>
-    <d v="2022-03-27T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <n v="188"/>
-    <n v="38"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="102"/>
-    <n v="3"/>
-    <n v="306"/>
-    <d v="2022-07-04T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <n v="46"/>
-    <n v="21"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-10-12T00:00:00"/>
-    <n v="21"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <n v="19"/>
-    <n v="40"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="798"/>
-    <n v="2"/>
-    <n v="1596"/>
-    <d v="2022-08-08T00:00:00"/>
-    <n v="32"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <n v="68"/>
-    <n v="39"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="826"/>
-    <n v="3"/>
-    <n v="2478"/>
-    <d v="2022-03-10T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <n v="102"/>
-    <n v="21"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="611"/>
-    <n v="2"/>
-    <n v="1222"/>
-    <d v="2022-02-16T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <n v="42"/>
-    <n v="10"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="614"/>
-    <n v="1"/>
-    <n v="614"/>
-    <d v="2022-04-04T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <n v="32"/>
-    <n v="38"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="526"/>
-    <n v="4"/>
-    <n v="2104"/>
-    <d v="2022-08-26T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <n v="167"/>
-    <n v="46"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="130"/>
-    <n v="3"/>
-    <n v="390"/>
-    <d v="2022-07-23T00:00:00"/>
-    <n v="32"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <n v="109"/>
-    <n v="4"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="320"/>
-    <n v="1"/>
-    <n v="320"/>
-    <d v="2022-08-06T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <n v="36"/>
-    <n v="45"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-12-07T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <n v="97"/>
-    <n v="20"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <n v="164"/>
-    <n v="17"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="947"/>
-    <n v="2"/>
-    <n v="1894"/>
-    <d v="2022-04-10T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <n v="131"/>
-    <n v="7"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="921"/>
-    <n v="1"/>
-    <n v="921"/>
-    <d v="2022-10-16T00:00:00"/>
-    <n v="61"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <n v="73"/>
-    <n v="4"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-09-11T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <n v="136"/>
-    <n v="29"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-08-10T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <n v="97"/>
-    <n v="14"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="774"/>
-    <n v="3"/>
-    <n v="2322"/>
-    <d v="2022-12-23T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <n v="123"/>
-    <n v="3"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="865"/>
-    <n v="2"/>
-    <n v="1730"/>
-    <d v="2022-01-23T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <n v="70"/>
-    <n v="24"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="301"/>
-    <n v="4"/>
-    <n v="1204"/>
-    <d v="2022-09-07T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <n v="169"/>
-    <n v="37"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="255"/>
-    <n v="1"/>
-    <n v="255"/>
-    <d v="2022-01-10T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <n v="196"/>
-    <n v="16"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="319"/>
-    <n v="3"/>
-    <n v="957"/>
-    <d v="2022-09-03T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <n v="13"/>
-    <n v="4"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="255"/>
-    <n v="4"/>
-    <n v="1020"/>
-    <d v="2022-11-21T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <n v="49"/>
-    <n v="24"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="912"/>
-    <n v="4"/>
-    <n v="3648"/>
-    <d v="2022-04-10T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <n v="60"/>
-    <n v="34"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="947"/>
-    <n v="2"/>
-    <n v="1894"/>
-    <d v="2022-10-17T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="50"/>
-    <n v="130"/>
-    <n v="30"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="821"/>
-    <n v="3"/>
-    <n v="2463"/>
-    <d v="2022-06-29T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <n v="188"/>
-    <n v="18"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="779"/>
-    <n v="3"/>
-    <n v="2337"/>
-    <d v="2022-08-11T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="52"/>
-    <n v="5"/>
-    <n v="19"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="437"/>
-    <n v="1"/>
-    <n v="437"/>
-    <d v="2022-09-07T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="53"/>
-    <n v="172"/>
-    <n v="31"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-05-27T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="54"/>
-    <n v="27"/>
-    <n v="19"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-04-06T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="55"/>
-    <n v="160"/>
-    <n v="49"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-09-14T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="56"/>
-    <n v="149"/>
-    <n v="46"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="301"/>
-    <n v="2"/>
-    <n v="602"/>
-    <d v="2022-11-21T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="57"/>
-    <n v="8"/>
-    <n v="19"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-01-04T00:00:00"/>
-    <n v="30"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="58"/>
-    <n v="200"/>
-    <n v="22"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="826"/>
-    <n v="1"/>
-    <n v="826"/>
-    <d v="2022-01-16T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="59"/>
-    <n v="50"/>
-    <n v="24"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="1"/>
-    <n v="389"/>
-    <d v="2022-10-07T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <n v="67"/>
-    <n v="45"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="752"/>
-    <n v="2"/>
-    <n v="1504"/>
-    <d v="2022-12-02T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <n v="44"/>
-    <n v="12"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="981"/>
-    <n v="3"/>
-    <n v="2943"/>
-    <d v="2022-09-04T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="62"/>
-    <n v="125"/>
-    <n v="30"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-09-15T00:00:00"/>
-    <n v="27"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="63"/>
-    <n v="58"/>
-    <n v="38"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="301"/>
-    <n v="2"/>
-    <n v="602"/>
-    <d v="2022-06-09T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="64"/>
-    <n v="3"/>
-    <n v="31"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="84"/>
-    <n v="3"/>
-    <n v="252"/>
-    <d v="2022-12-06T00:00:00"/>
-    <n v="40"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="65"/>
-    <n v="86"/>
-    <n v="36"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="102"/>
-    <n v="3"/>
-    <n v="306"/>
-    <d v="2022-06-01T00:00:00"/>
-    <n v="27"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="66"/>
-    <n v="70"/>
-    <n v="19"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="865"/>
-    <n v="1"/>
-    <n v="865"/>
-    <d v="2022-06-27T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="67"/>
-    <n v="130"/>
-    <n v="48"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-06-12T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="68"/>
-    <n v="172"/>
-    <n v="45"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="992"/>
-    <n v="3"/>
-    <n v="2976"/>
-    <d v="2022-02-02T00:00:00"/>
-    <n v="30"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="69"/>
-    <n v="2"/>
-    <n v="36"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="981"/>
-    <n v="2"/>
-    <n v="1962"/>
-    <d v="2022-06-28T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="70"/>
-    <n v="102"/>
-    <n v="30"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-04-11T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <n v="35"/>
-    <n v="49"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-09-25T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <n v="98"/>
-    <n v="33"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="871"/>
-    <n v="1"/>
-    <n v="871"/>
-    <d v="2022-11-19T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <n v="30"/>
-    <n v="18"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="51"/>
-    <n v="3"/>
-    <n v="153"/>
-    <d v="2022-03-06T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="74"/>
-    <n v="116"/>
-    <n v="49"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="211"/>
-    <n v="3"/>
-    <n v="633"/>
-    <d v="2022-06-17T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <n v="8"/>
-    <n v="28"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="947"/>
-    <n v="4"/>
-    <n v="3788"/>
-    <d v="2022-11-26T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <n v="150"/>
-    <n v="47"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="769"/>
-    <n v="3"/>
-    <n v="2307"/>
-    <d v="2022-02-12T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <n v="44"/>
-    <n v="11"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="155"/>
-    <n v="1"/>
-    <n v="155"/>
-    <d v="2022-02-13T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="78"/>
-    <n v="186"/>
-    <n v="45"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-10-12T00:00:00"/>
-    <n v="32"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <n v="36"/>
-    <n v="33"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="615"/>
-    <n v="1"/>
-    <n v="615"/>
-    <d v="2022-01-12T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <n v="197"/>
-    <n v="17"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="505"/>
-    <n v="4"/>
-    <n v="2020"/>
-    <d v="2022-04-05T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <n v="77"/>
-    <n v="6"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="504"/>
-    <n v="4"/>
-    <n v="2016"/>
-    <d v="2022-10-29T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <n v="31"/>
-    <n v="4"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="416"/>
-    <n v="2"/>
-    <n v="832"/>
-    <d v="2022-09-10T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <n v="47"/>
-    <n v="20"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="255"/>
-    <n v="1"/>
-    <n v="255"/>
-    <d v="2022-08-30T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <n v="55"/>
-    <n v="48"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="614"/>
-    <n v="3"/>
-    <n v="1842"/>
-    <d v="2022-02-04T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="106"/>
-    <n v="47"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="971"/>
-    <n v="3"/>
-    <n v="2913"/>
-    <d v="2022-08-03T00:00:00"/>
-    <n v="61"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="190"/>
-    <n v="27"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="981"/>
-    <n v="1"/>
-    <n v="981"/>
-    <d v="2022-12-03T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <n v="158"/>
-    <n v="15"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-03-31T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="121"/>
-    <n v="6"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="921"/>
-    <n v="3"/>
-    <n v="2763"/>
-    <d v="2022-09-21T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="55"/>
-    <n v="47"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="981"/>
-    <n v="1"/>
-    <n v="981"/>
-    <d v="2022-04-03T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="144"/>
-    <n v="14"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="504"/>
-    <n v="4"/>
-    <n v="2016"/>
-    <d v="2022-03-31T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="12"/>
-    <n v="11"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-04-25T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="145"/>
-    <n v="39"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-04-15T00:00:00"/>
-    <n v="52"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="144"/>
-    <n v="9"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="992"/>
-    <n v="3"/>
-    <n v="2976"/>
-    <d v="2022-07-15T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="140"/>
-    <n v="26"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="825"/>
-    <n v="3"/>
-    <n v="2475"/>
-    <d v="2022-11-10T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <n v="136"/>
-    <n v="16"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="3"/>
-    <n v="1167"/>
-    <d v="2022-04-24T00:00:00"/>
-    <n v="39"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <n v="3"/>
-    <n v="5"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="752"/>
-    <n v="2"/>
-    <n v="1504"/>
-    <d v="2022-03-16T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <n v="144"/>
-    <n v="10"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="992"/>
-    <n v="4"/>
-    <n v="3968"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="25"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="98"/>
-    <n v="30"/>
-    <n v="50"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="611"/>
-    <n v="2"/>
-    <n v="1222"/>
-    <d v="2022-10-04T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <n v="23"/>
-    <n v="3"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="141"/>
-    <n v="2"/>
-    <n v="282"/>
-    <d v="2022-09-06T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <n v="92"/>
-    <n v="13"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-06-13T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <n v="115"/>
-    <n v="43"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="2"/>
-    <n v="778"/>
-    <d v="2022-12-23T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <n v="104"/>
-    <n v="49"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="103"/>
-    <n v="118"/>
-    <n v="30"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="255"/>
-    <n v="1"/>
-    <n v="255"/>
-    <d v="2022-08-15T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="104"/>
-    <n v="5"/>
-    <n v="45"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="2"/>
-    <n v="778"/>
-    <d v="2022-06-26T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <n v="104"/>
-    <n v="6"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="319"/>
-    <n v="4"/>
-    <n v="1276"/>
-    <d v="2022-04-09T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <n v="108"/>
-    <n v="17"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="971"/>
-    <n v="4"/>
-    <n v="3884"/>
-    <d v="2022-02-05T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <n v="65"/>
-    <n v="45"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-04-06T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="108"/>
-    <n v="121"/>
-    <n v="19"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-06-01T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <n v="30"/>
-    <n v="42"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="437"/>
-    <n v="4"/>
-    <n v="1748"/>
-    <d v="2022-05-31T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <n v="149"/>
-    <n v="35"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-07-09T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <n v="84"/>
-    <n v="46"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="2"/>
-    <n v="778"/>
-    <d v="2022-08-12T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <n v="198"/>
-    <n v="26"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="395"/>
-    <n v="3"/>
-    <n v="1185"/>
-    <d v="2022-02-06T00:00:00"/>
-    <n v="62"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="113"/>
-    <n v="150"/>
-    <n v="5"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="605"/>
-    <n v="4"/>
-    <n v="2420"/>
-    <d v="2022-09-25T00:00:00"/>
-    <n v="59"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="114"/>
-    <n v="200"/>
-    <n v="29"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="928"/>
-    <n v="2"/>
-    <n v="1856"/>
-    <d v="2022-07-02T00:00:00"/>
-    <n v="42"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <n v="32"/>
-    <n v="37"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="776"/>
-    <n v="3"/>
-    <n v="2328"/>
-    <d v="2022-01-13T00:00:00"/>
-    <n v="35"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <n v="161"/>
-    <n v="20"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="947"/>
-    <n v="4"/>
-    <n v="3788"/>
-    <d v="2022-10-06T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <n v="16"/>
-    <n v="49"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="25"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <n v="38"/>
-    <n v="21"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="84"/>
-    <n v="3"/>
-    <n v="252"/>
-    <d v="2022-12-21T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="119"/>
-    <n v="142"/>
-    <n v="10"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="51"/>
-    <n v="2"/>
-    <n v="102"/>
-    <d v="2022-12-27T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="120"/>
-    <n v="36"/>
-    <n v="5"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="416"/>
-    <n v="1"/>
-    <n v="416"/>
-    <d v="2022-10-13T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <n v="151"/>
-    <n v="36"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="130"/>
-    <d v="2022-09-30T00:00:00"/>
-    <n v="49"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <n v="114"/>
-    <n v="6"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="155"/>
-    <n v="1"/>
-    <n v="155"/>
-    <d v="2022-03-03T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="123"/>
-    <n v="66"/>
-    <n v="26"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="255"/>
-    <n v="3"/>
-    <n v="765"/>
-    <d v="2022-03-25T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="124"/>
-    <n v="105"/>
-    <n v="4"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="155"/>
-    <n v="2"/>
-    <n v="310"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="125"/>
-    <n v="85"/>
-    <n v="39"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="437"/>
-    <n v="1"/>
-    <n v="437"/>
-    <d v="2022-12-08T00:00:00"/>
-    <n v="32"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <n v="2"/>
-    <n v="39"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-07-06T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <n v="193"/>
-    <n v="50"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="51"/>
-    <n v="1"/>
-    <n v="51"/>
-    <d v="2022-01-19T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <n v="75"/>
-    <n v="35"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="779"/>
-    <n v="1"/>
-    <n v="779"/>
-    <d v="2022-06-26T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <n v="67"/>
-    <n v="1"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="821"/>
-    <n v="3"/>
-    <n v="2463"/>
-    <d v="2022-04-10T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <n v="180"/>
-    <n v="24"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="921"/>
-    <n v="3"/>
-    <n v="2763"/>
-    <d v="2022-08-21T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="131"/>
-    <n v="190"/>
-    <n v="36"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="558"/>
-    <n v="2"/>
-    <n v="1116"/>
-    <d v="2022-03-17T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <n v="151"/>
-    <n v="6"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-09-22T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="133"/>
-    <n v="154"/>
-    <n v="41"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="504"/>
-    <n v="3"/>
-    <n v="1512"/>
-    <d v="2022-10-11T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="134"/>
-    <n v="196"/>
-    <n v="46"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="526"/>
-    <n v="1"/>
-    <n v="526"/>
-    <d v="2022-07-25T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="135"/>
-    <n v="55"/>
-    <n v="44"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="779"/>
-    <n v="2"/>
-    <n v="1558"/>
-    <d v="2022-08-11T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <n v="6"/>
-    <n v="31"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="558"/>
-    <n v="1"/>
-    <n v="558"/>
-    <d v="2022-02-21T00:00:00"/>
-    <n v="23"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <n v="163"/>
-    <n v="20"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-12-05T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="138"/>
-    <n v="150"/>
-    <n v="24"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="395"/>
-    <n v="3"/>
-    <n v="1185"/>
-    <d v="2022-05-24T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="139"/>
-    <n v="171"/>
-    <n v="25"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="141"/>
-    <n v="2"/>
-    <n v="282"/>
-    <d v="2022-03-10T00:00:00"/>
-    <n v="24"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="140"/>
-    <n v="143"/>
-    <n v="36"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-04-09T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="141"/>
-    <n v="86"/>
-    <n v="21"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="451"/>
-    <n v="4"/>
-    <n v="1804"/>
-    <d v="2022-01-25T00:00:00"/>
-    <n v="59"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <n v="60"/>
-    <n v="30"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="751"/>
-    <n v="3"/>
-    <n v="2253"/>
-    <d v="2022-02-22T00:00:00"/>
-    <n v="32"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="143"/>
-    <n v="101"/>
-    <n v="24"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="3"/>
-    <n v="1167"/>
-    <d v="2022-05-31T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="144"/>
-    <n v="12"/>
-    <n v="44"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="921"/>
-    <n v="2"/>
-    <n v="1842"/>
-    <d v="2022-05-24T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="145"/>
-    <n v="49"/>
-    <n v="42"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="526"/>
-    <n v="4"/>
-    <n v="2104"/>
-    <d v="2022-02-26T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="146"/>
-    <n v="42"/>
-    <n v="30"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="51"/>
-    <n v="4"/>
-    <n v="204"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <n v="166"/>
-    <n v="22"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-04-19T00:00:00"/>
-    <n v="56"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="148"/>
-    <n v="82"/>
-    <n v="28"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="841"/>
-    <n v="1"/>
-    <n v="841"/>
-    <d v="2022-06-30T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <n v="173"/>
-    <n v="7"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="752"/>
-    <n v="4"/>
-    <n v="3008"/>
-    <d v="2022-02-11T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="150"/>
-    <n v="35"/>
-    <n v="35"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="841"/>
-    <n v="1"/>
-    <n v="841"/>
-    <d v="2022-07-05T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <n v="158"/>
-    <n v="28"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="992"/>
-    <n v="2"/>
-    <n v="1984"/>
-    <d v="2022-08-11T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <n v="158"/>
-    <n v="14"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="416"/>
-    <n v="1"/>
-    <n v="416"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="153"/>
-    <n v="134"/>
-    <n v="10"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="614"/>
-    <n v="2"/>
-    <n v="1228"/>
-    <d v="2022-05-13T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="154"/>
-    <n v="67"/>
-    <n v="16"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-06-12T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="155"/>
-    <n v="80"/>
-    <n v="16"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="912"/>
-    <n v="4"/>
-    <n v="3648"/>
-    <d v="2022-08-03T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <n v="7"/>
-    <n v="31"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="871"/>
-    <n v="2"/>
-    <n v="1742"/>
-    <d v="2022-08-09T00:00:00"/>
-    <n v="21"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <n v="180"/>
-    <n v="42"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="865"/>
-    <n v="3"/>
-    <n v="2595"/>
-    <d v="2022-08-23T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="158"/>
-    <n v="14"/>
-    <n v="25"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="981"/>
-    <n v="2"/>
-    <n v="1962"/>
-    <d v="2022-11-27T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="159"/>
-    <n v="73"/>
-    <n v="13"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="395"/>
-    <n v="3"/>
-    <n v="1185"/>
-    <d v="2022-05-26T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="160"/>
-    <n v="143"/>
-    <n v="6"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="821"/>
-    <n v="1"/>
-    <n v="821"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <n v="149"/>
-    <n v="44"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="558"/>
-    <n v="1"/>
-    <n v="558"/>
-    <d v="2022-03-17T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="162"/>
-    <n v="163"/>
-    <n v="9"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="511"/>
-    <n v="1"/>
-    <n v="511"/>
-    <d v="2022-01-09T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="163"/>
-    <n v="66"/>
-    <n v="45"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="615"/>
-    <n v="4"/>
-    <n v="2460"/>
-    <d v="2022-03-15T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="164"/>
-    <n v="91"/>
-    <n v="36"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="526"/>
-    <n v="1"/>
-    <n v="526"/>
-    <d v="2022-09-10T00:00:00"/>
-    <n v="30"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="165"/>
-    <n v="130"/>
-    <n v="43"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="774"/>
-    <n v="3"/>
-    <n v="2322"/>
-    <d v="2022-08-18T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <n v="163"/>
-    <n v="20"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="776"/>
-    <n v="1"/>
-    <n v="776"/>
-    <d v="2022-01-07T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <n v="20"/>
-    <n v="18"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="752"/>
-    <n v="2"/>
-    <n v="1504"/>
-    <d v="2022-06-23T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="168"/>
-    <n v="10"/>
-    <n v="43"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="779"/>
-    <n v="2"/>
-    <n v="1558"/>
-    <d v="2022-05-21T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="169"/>
-    <n v="25"/>
-    <n v="21"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-06-17T00:00:00"/>
-    <n v="41"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="170"/>
-    <n v="194"/>
-    <n v="4"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="511"/>
-    <n v="2"/>
-    <n v="1022"/>
-    <d v="2022-06-19T00:00:00"/>
-    <n v="32"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="171"/>
-    <n v="25"/>
-    <n v="50"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="51"/>
-    <n v="3"/>
-    <n v="153"/>
-    <d v="2022-10-10T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <n v="54"/>
-    <n v="33"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="752"/>
-    <n v="1"/>
-    <n v="752"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="173"/>
-    <n v="33"/>
-    <n v="27"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-07-13T00:00:00"/>
-    <n v="22"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="174"/>
-    <n v="164"/>
-    <n v="7"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="51"/>
-    <n v="1"/>
-    <n v="51"/>
-    <d v="2022-01-05T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="175"/>
-    <n v="95"/>
-    <n v="6"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="769"/>
-    <n v="1"/>
-    <n v="769"/>
-    <d v="2022-01-29T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <n v="14"/>
-    <n v="15"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-06-14T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <n v="65"/>
-    <n v="18"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="51"/>
-    <n v="2"/>
-    <n v="102"/>
-    <d v="2022-12-05T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="178"/>
-    <n v="110"/>
-    <n v="32"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="865"/>
-    <n v="2"/>
-    <n v="1730"/>
-    <d v="2022-05-16T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="179"/>
-    <n v="80"/>
-    <n v="11"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-12-31T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <n v="54"/>
-    <n v="20"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-11-17T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <n v="125"/>
-    <n v="24"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="605"/>
-    <n v="2"/>
-    <n v="1210"/>
-    <d v="2022-12-08T00:00:00"/>
-    <n v="48"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <n v="180"/>
-    <n v="15"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="912"/>
-    <n v="4"/>
-    <n v="3648"/>
-    <d v="2022-05-25T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <n v="131"/>
-    <n v="48"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-11-23T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <n v="169"/>
-    <n v="7"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="614"/>
-    <n v="4"/>
-    <n v="2456"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <n v="134"/>
-    <n v="21"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-10-28T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="186"/>
-    <n v="25"/>
-    <n v="42"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="130"/>
-    <n v="4"/>
-    <n v="520"/>
-    <d v="2022-05-12T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="187"/>
-    <n v="141"/>
-    <n v="26"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="752"/>
-    <n v="3"/>
-    <n v="2256"/>
-    <d v="2022-10-19T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="188"/>
-    <n v="117"/>
-    <n v="44"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="558"/>
-    <n v="3"/>
-    <n v="1674"/>
-    <d v="2022-03-11T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="189"/>
-    <n v="136"/>
-    <n v="14"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-09-09T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="190"/>
-    <n v="149"/>
-    <n v="37"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="319"/>
-    <n v="3"/>
-    <n v="957"/>
-    <d v="2022-10-02T00:00:00"/>
-    <n v="27"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="191"/>
-    <n v="196"/>
-    <n v="21"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="251"/>
-    <n v="1"/>
-    <n v="251"/>
-    <d v="2022-12-30T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="192"/>
-    <n v="25"/>
-    <n v="18"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="102"/>
-    <n v="3"/>
-    <n v="306"/>
-    <d v="2022-07-01T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="193"/>
-    <n v="79"/>
-    <n v="5"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="141"/>
-    <n v="2"/>
-    <n v="282"/>
-    <d v="2022-06-16T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="194"/>
-    <n v="68"/>
-    <n v="3"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-04-01T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="195"/>
-    <n v="173"/>
-    <n v="23"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="320"/>
-    <n v="1"/>
-    <n v="320"/>
-    <d v="2022-07-21T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <n v="188"/>
-    <n v="26"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-12-12T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="197"/>
-    <n v="12"/>
-    <n v="37"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="779"/>
-    <n v="2"/>
-    <n v="1558"/>
-    <d v="2022-01-19T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="198"/>
-    <n v="32"/>
-    <n v="24"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="947"/>
-    <n v="2"/>
-    <n v="1894"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="199"/>
-    <n v="128"/>
-    <n v="49"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="200"/>
-    <n v="96"/>
-    <n v="19"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-06-22T00:00:00"/>
-    <n v="29"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="201"/>
-    <n v="92"/>
-    <n v="25"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="526"/>
-    <n v="3"/>
-    <n v="1578"/>
-    <d v="2022-05-21T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="202"/>
-    <n v="141"/>
-    <n v="21"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="871"/>
-    <n v="4"/>
-    <n v="3484"/>
-    <d v="2022-08-30T00:00:00"/>
-    <n v="30"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="203"/>
-    <n v="31"/>
-    <n v="12"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-08-08T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="204"/>
-    <n v="78"/>
-    <n v="41"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="130"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="35"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="205"/>
-    <n v="20"/>
-    <n v="33"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="615"/>
-    <n v="1"/>
-    <n v="615"/>
-    <d v="2022-02-27T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="206"/>
-    <n v="146"/>
-    <n v="50"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-05-28T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="207"/>
-    <n v="60"/>
-    <n v="4"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-11-13T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="208"/>
-    <n v="191"/>
-    <n v="42"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-12-27T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="209"/>
-    <n v="134"/>
-    <n v="7"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="1280"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="210"/>
-    <n v="160"/>
-    <n v="22"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-12-14T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="211"/>
-    <n v="93"/>
-    <n v="33"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="605"/>
-    <n v="3"/>
-    <n v="1815"/>
-    <d v="2022-07-09T00:00:00"/>
-    <n v="61"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="212"/>
-    <n v="43"/>
-    <n v="17"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="871"/>
-    <n v="4"/>
-    <n v="3484"/>
-    <d v="2022-07-10T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="213"/>
-    <n v="130"/>
-    <n v="24"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="798"/>
-    <n v="4"/>
-    <n v="3192"/>
-    <d v="2022-11-08T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="214"/>
-    <n v="60"/>
-    <n v="34"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="451"/>
-    <n v="3"/>
-    <n v="1353"/>
-    <d v="2022-04-27T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="215"/>
-    <n v="151"/>
-    <n v="28"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="826"/>
-    <n v="4"/>
-    <n v="3304"/>
-    <d v="2022-05-14T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="216"/>
-    <n v="31"/>
-    <n v="43"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-02-27T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="217"/>
-    <n v="5"/>
-    <n v="41"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="798"/>
-    <n v="2"/>
-    <n v="1596"/>
-    <d v="2022-02-13T00:00:00"/>
-    <n v="59"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="218"/>
-    <n v="162"/>
-    <n v="39"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="947"/>
-    <n v="3"/>
-    <n v="2841"/>
-    <d v="2022-06-22T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="219"/>
-    <n v="10"/>
-    <n v="22"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="416"/>
-    <n v="3"/>
-    <n v="1248"/>
-    <d v="2022-06-09T00:00:00"/>
-    <n v="48"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="220"/>
-    <n v="89"/>
-    <n v="49"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-06-22T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="221"/>
-    <n v="130"/>
-    <n v="17"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-11-13T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="222"/>
-    <n v="126"/>
-    <n v="34"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="1280"/>
-    <d v="2022-10-30T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="223"/>
-    <n v="11"/>
-    <n v="6"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="437"/>
-    <n v="3"/>
-    <n v="1311"/>
-    <d v="2022-05-29T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="224"/>
-    <n v="178"/>
-    <n v="46"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="826"/>
-    <n v="4"/>
-    <n v="3304"/>
-    <d v="2022-03-21T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="225"/>
-    <n v="159"/>
-    <n v="6"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="558"/>
-    <n v="1"/>
-    <n v="558"/>
-    <d v="2022-08-01T00:00:00"/>
-    <n v="39"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="226"/>
-    <n v="56"/>
-    <n v="34"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="320"/>
-    <n v="1"/>
-    <n v="320"/>
-    <d v="2022-07-22T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="227"/>
-    <n v="83"/>
-    <n v="1"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-09-09T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="228"/>
-    <n v="137"/>
-    <n v="10"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="798"/>
-    <n v="4"/>
-    <n v="3192"/>
-    <d v="2022-08-17T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="229"/>
-    <n v="99"/>
-    <n v="21"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="387"/>
-    <n v="3"/>
-    <n v="1161"/>
-    <d v="2022-06-13T00:00:00"/>
-    <n v="63"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="230"/>
-    <n v="149"/>
-    <n v="5"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="345"/>
-    <n v="2"/>
-    <n v="690"/>
-    <d v="2022-08-15T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="231"/>
-    <n v="73"/>
-    <n v="2"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-05-27T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="232"/>
-    <n v="156"/>
-    <n v="22"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="251"/>
-    <n v="1"/>
-    <n v="251"/>
-    <d v="2022-01-20T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="233"/>
-    <n v="190"/>
-    <n v="48"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="141"/>
-    <n v="3"/>
-    <n v="423"/>
-    <d v="2022-02-16T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="234"/>
-    <n v="115"/>
-    <n v="2"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-08-21T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="235"/>
-    <n v="7"/>
-    <n v="10"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="511"/>
-    <n v="1"/>
-    <n v="511"/>
-    <d v="2022-11-01T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="236"/>
-    <n v="80"/>
-    <n v="34"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-01-14T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="237"/>
-    <n v="144"/>
-    <n v="16"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="558"/>
-    <n v="2"/>
-    <n v="1116"/>
-    <d v="2022-05-23T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="238"/>
-    <n v="97"/>
-    <n v="48"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="971"/>
-    <n v="3"/>
-    <n v="2913"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="32"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="239"/>
-    <n v="4"/>
-    <n v="39"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="752"/>
-    <n v="3"/>
-    <n v="2256"/>
-    <d v="2022-02-23T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="240"/>
-    <n v="4"/>
-    <n v="22"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="971"/>
-    <n v="2"/>
-    <n v="1942"/>
-    <d v="2022-09-16T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="241"/>
-    <n v="103"/>
-    <n v="12"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="865"/>
-    <n v="2"/>
-    <n v="1730"/>
-    <d v="2022-05-24T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="242"/>
-    <n v="40"/>
-    <n v="24"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-01-12T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="243"/>
-    <n v="17"/>
-    <n v="47"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="871"/>
-    <n v="3"/>
-    <n v="2613"/>
-    <d v="2022-11-26T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="244"/>
-    <n v="101"/>
-    <n v="40"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="451"/>
-    <n v="4"/>
-    <n v="1804"/>
-    <d v="2022-08-12T00:00:00"/>
-    <n v="43"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="245"/>
-    <n v="103"/>
-    <n v="38"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-09-29T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="246"/>
-    <n v="124"/>
-    <n v="10"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="130"/>
-    <n v="2"/>
-    <n v="260"/>
-    <d v="2022-12-24T00:00:00"/>
-    <n v="52"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="247"/>
-    <n v="52"/>
-    <n v="35"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="947"/>
-    <n v="4"/>
-    <n v="3788"/>
-    <d v="2022-06-05T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="248"/>
-    <n v="52"/>
-    <n v="49"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="779"/>
-    <n v="1"/>
-    <n v="779"/>
-    <d v="2022-01-08T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="249"/>
-    <n v="164"/>
-    <n v="32"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="250"/>
-    <n v="124"/>
-    <n v="7"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="752"/>
-    <n v="4"/>
-    <n v="3008"/>
-    <d v="2022-12-14T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="251"/>
-    <n v="166"/>
-    <n v="21"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="526"/>
-    <n v="1"/>
-    <n v="526"/>
-    <d v="2022-06-13T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="252"/>
-    <n v="178"/>
-    <n v="20"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="437"/>
-    <n v="2"/>
-    <n v="874"/>
-    <d v="2022-03-31T00:00:00"/>
-    <n v="24"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="253"/>
-    <n v="63"/>
-    <n v="26"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-05-16T00:00:00"/>
-    <n v="35"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="254"/>
-    <n v="116"/>
-    <n v="4"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="611"/>
-    <n v="4"/>
-    <n v="2444"/>
-    <d v="2022-07-05T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="255"/>
-    <n v="191"/>
-    <n v="46"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-11-12T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="256"/>
-    <n v="62"/>
-    <n v="22"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="751"/>
-    <n v="4"/>
-    <n v="3004"/>
-    <d v="2022-06-27T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="257"/>
-    <n v="7"/>
-    <n v="15"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="345"/>
-    <n v="1"/>
-    <n v="345"/>
-    <d v="2022-01-28T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="258"/>
-    <n v="155"/>
-    <n v="40"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="971"/>
-    <n v="1"/>
-    <n v="971"/>
-    <d v="2022-08-08T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="259"/>
-    <n v="92"/>
-    <n v="21"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="51"/>
-    <n v="4"/>
-    <n v="204"/>
-    <d v="2022-12-23T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="260"/>
-    <n v="14"/>
-    <n v="15"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="798"/>
-    <n v="3"/>
-    <n v="2394"/>
-    <d v="2022-02-10T00:00:00"/>
-    <n v="41"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="261"/>
-    <n v="199"/>
-    <n v="22"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="301"/>
-    <n v="3"/>
-    <n v="903"/>
-    <d v="2022-08-16T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="262"/>
-    <n v="86"/>
-    <n v="28"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="776"/>
-    <n v="1"/>
-    <n v="776"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="263"/>
-    <n v="133"/>
-    <n v="14"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="841"/>
-    <n v="1"/>
-    <n v="841"/>
-    <d v="2022-05-25T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="264"/>
-    <n v="183"/>
-    <n v="27"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-07-20T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="265"/>
-    <n v="130"/>
-    <n v="41"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="928"/>
-    <n v="3"/>
-    <n v="2784"/>
-    <d v="2022-07-31T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="266"/>
-    <n v="62"/>
-    <n v="40"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-08-08T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="267"/>
-    <n v="149"/>
-    <n v="28"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-08-28T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="268"/>
-    <n v="79"/>
-    <n v="26"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="319"/>
-    <n v="3"/>
-    <n v="957"/>
-    <d v="2022-02-15T00:00:00"/>
-    <n v="39"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="269"/>
-    <n v="149"/>
-    <n v="49"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="387"/>
-    <n v="4"/>
-    <n v="1548"/>
-    <d v="2022-02-04T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="270"/>
-    <n v="138"/>
-    <n v="2"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-09-10T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="271"/>
-    <n v="58"/>
-    <n v="25"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-03-23T00:00:00"/>
-    <n v="38"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="272"/>
-    <n v="120"/>
-    <n v="3"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-09-13T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="273"/>
-    <n v="167"/>
-    <n v="8"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-07-16T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="274"/>
-    <n v="133"/>
-    <n v="44"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="301"/>
-    <n v="4"/>
-    <n v="1204"/>
-    <d v="2022-10-30T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="275"/>
-    <n v="65"/>
-    <n v="33"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="825"/>
-    <n v="4"/>
-    <n v="3300"/>
-    <d v="2022-01-10T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="276"/>
-    <n v="13"/>
-    <n v="42"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="971"/>
-    <n v="3"/>
-    <n v="2913"/>
-    <d v="2022-11-08T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="277"/>
-    <n v="181"/>
-    <n v="35"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="614"/>
-    <n v="1"/>
-    <n v="614"/>
-    <d v="2022-10-13T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="278"/>
-    <n v="82"/>
-    <n v="6"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="319"/>
-    <n v="4"/>
-    <n v="1276"/>
-    <d v="2022-08-30T00:00:00"/>
-    <n v="45"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="279"/>
-    <n v="173"/>
-    <n v="39"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="825"/>
-    <n v="4"/>
-    <n v="3300"/>
-    <d v="2022-09-08T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="280"/>
-    <n v="160"/>
-    <n v="23"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="981"/>
-    <n v="2"/>
-    <n v="1962"/>
-    <d v="2022-12-31T00:00:00"/>
-    <n v="24"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="281"/>
-    <n v="164"/>
-    <n v="25"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="921"/>
-    <n v="4"/>
-    <n v="3684"/>
-    <d v="2022-01-05T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="282"/>
-    <n v="188"/>
-    <n v="50"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="605"/>
-    <n v="4"/>
-    <n v="2420"/>
-    <d v="2022-04-29T00:00:00"/>
-    <n v="49"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="283"/>
-    <n v="139"/>
-    <n v="43"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="102"/>
-    <n v="2"/>
-    <n v="204"/>
-    <d v="2022-10-16T00:00:00"/>
-    <n v="30"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="284"/>
-    <n v="191"/>
-    <n v="19"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="558"/>
-    <n v="3"/>
-    <n v="1674"/>
-    <d v="2022-03-06T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="285"/>
-    <n v="149"/>
-    <n v="5"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="921"/>
-    <n v="4"/>
-    <n v="3684"/>
-    <d v="2022-05-26T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="286"/>
-    <n v="52"/>
-    <n v="11"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="511"/>
-    <n v="2"/>
-    <n v="1022"/>
-    <d v="2022-08-12T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="287"/>
-    <n v="183"/>
-    <n v="12"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="437"/>
-    <n v="1"/>
-    <n v="437"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="49"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="288"/>
-    <n v="117"/>
-    <n v="10"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="320"/>
-    <n v="3"/>
-    <n v="960"/>
-    <d v="2022-06-26T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="289"/>
-    <n v="26"/>
-    <n v="8"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="84"/>
-    <n v="1"/>
-    <n v="84"/>
-    <d v="2022-09-24T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="290"/>
-    <n v="196"/>
-    <n v="24"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="387"/>
-    <n v="1"/>
-    <n v="387"/>
-    <d v="2022-12-07T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="291"/>
-    <n v="34"/>
-    <n v="28"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="614"/>
-    <n v="2"/>
-    <n v="1228"/>
-    <d v="2022-10-09T00:00:00"/>
-    <n v="46"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="292"/>
-    <n v="52"/>
-    <n v="41"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-03-04T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="293"/>
-    <n v="112"/>
-    <n v="36"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="511"/>
-    <n v="2"/>
-    <n v="1022"/>
-    <d v="2022-08-05T00:00:00"/>
-    <n v="33"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="294"/>
-    <n v="82"/>
-    <n v="37"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-12-08T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="295"/>
-    <n v="180"/>
-    <n v="21"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="752"/>
-    <n v="2"/>
-    <n v="1504"/>
-    <d v="2022-11-11T00:00:00"/>
-    <n v="36"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="296"/>
-    <n v="157"/>
-    <n v="8"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="387"/>
-    <n v="2"/>
-    <n v="774"/>
-    <d v="2022-10-10T00:00:00"/>
-    <n v="35"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="297"/>
-    <n v="166"/>
-    <n v="9"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="504"/>
-    <n v="3"/>
-    <n v="1512"/>
-    <d v="2022-06-26T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="298"/>
-    <n v="42"/>
-    <n v="47"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="387"/>
-    <n v="4"/>
-    <n v="1548"/>
-    <d v="2022-04-08T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="299"/>
-    <n v="21"/>
-    <n v="15"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="345"/>
-    <n v="1"/>
-    <n v="345"/>
-    <d v="2022-04-15T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="300"/>
-    <n v="42"/>
-    <n v="48"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-04-09T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="301"/>
-    <n v="141"/>
-    <n v="46"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-11-07T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="302"/>
-    <n v="113"/>
-    <n v="40"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="141"/>
-    <n v="1"/>
-    <n v="141"/>
-    <d v="2022-01-06T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="303"/>
-    <n v="105"/>
-    <n v="18"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="774"/>
-    <n v="4"/>
-    <n v="3096"/>
-    <d v="2022-07-16T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="304"/>
-    <n v="192"/>
-    <n v="42"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="871"/>
-    <n v="1"/>
-    <n v="871"/>
-    <d v="2022-12-17T00:00:00"/>
-    <n v="21"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="305"/>
-    <n v="17"/>
-    <n v="20"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="776"/>
-    <n v="2"/>
-    <n v="1552"/>
-    <d v="2022-05-13T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="306"/>
-    <n v="120"/>
-    <n v="6"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="841"/>
-    <n v="1"/>
-    <n v="841"/>
-    <d v="2022-12-24T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="307"/>
-    <n v="137"/>
-    <n v="12"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="451"/>
-    <n v="4"/>
-    <n v="1804"/>
-    <d v="2022-09-16T00:00:00"/>
-    <n v="46"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="308"/>
-    <n v="169"/>
-    <n v="2"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="319"/>
-    <n v="4"/>
-    <n v="1276"/>
-    <d v="2022-01-23T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="309"/>
-    <n v="129"/>
-    <n v="7"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="505"/>
-    <n v="4"/>
-    <n v="2020"/>
-    <d v="2022-02-22T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="310"/>
-    <n v="130"/>
-    <n v="16"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="477"/>
-    <n v="4"/>
-    <n v="1908"/>
-    <d v="2022-06-14T00:00:00"/>
-    <n v="49"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="311"/>
-    <n v="60"/>
-    <n v="3"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="921"/>
-    <n v="4"/>
-    <n v="3684"/>
-    <d v="2022-07-21T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="312"/>
-    <n v="48"/>
-    <n v="45"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-03-24T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="313"/>
-    <n v="29"/>
-    <n v="3"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="395"/>
-    <n v="3"/>
-    <n v="1185"/>
-    <d v="2022-05-25T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="314"/>
-    <n v="97"/>
-    <n v="27"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="774"/>
-    <n v="1"/>
-    <n v="774"/>
-    <d v="2022-03-26T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="315"/>
-    <n v="10"/>
-    <n v="50"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="511"/>
-    <n v="4"/>
-    <n v="2044"/>
-    <d v="2022-03-19T00:00:00"/>
-    <n v="51"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="316"/>
-    <n v="58"/>
-    <n v="43"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="301"/>
-    <n v="1"/>
-    <n v="301"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="317"/>
-    <n v="188"/>
-    <n v="40"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="1280"/>
-    <d v="2022-02-20T00:00:00"/>
-    <n v="40"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="318"/>
-    <n v="21"/>
-    <n v="38"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="971"/>
-    <n v="4"/>
-    <n v="3884"/>
-    <d v="2022-06-22T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="319"/>
-    <n v="28"/>
-    <n v="33"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="774"/>
-    <n v="3"/>
-    <n v="2322"/>
-    <d v="2022-07-24T00:00:00"/>
-    <n v="49"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="320"/>
-    <n v="34"/>
-    <n v="28"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="505"/>
-    <n v="3"/>
-    <n v="1515"/>
-    <d v="2022-09-17T00:00:00"/>
-    <n v="24"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="321"/>
-    <n v="8"/>
-    <n v="1"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="130"/>
-    <n v="2"/>
-    <n v="260"/>
-    <d v="2022-10-15T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="322"/>
-    <n v="187"/>
-    <n v="8"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="451"/>
-    <n v="3"/>
-    <n v="1353"/>
-    <d v="2022-02-03T00:00:00"/>
-    <n v="25"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="323"/>
-    <n v="200"/>
-    <n v="37"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="921"/>
-    <n v="2"/>
-    <n v="1842"/>
-    <d v="2022-12-14T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="324"/>
-    <n v="177"/>
-    <n v="32"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="912"/>
-    <n v="2"/>
-    <n v="1824"/>
-    <d v="2022-04-05T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="325"/>
-    <n v="79"/>
-    <n v="48"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-03-13T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="326"/>
-    <n v="145"/>
-    <n v="43"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="825"/>
-    <n v="2"/>
-    <n v="1650"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="327"/>
-    <n v="188"/>
-    <n v="37"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="84"/>
-    <n v="2"/>
-    <n v="168"/>
-    <d v="2022-06-03T00:00:00"/>
-    <n v="25"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="328"/>
-    <n v="87"/>
-    <n v="4"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="947"/>
-    <n v="1"/>
-    <n v="947"/>
-    <d v="2022-09-07T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="329"/>
-    <n v="88"/>
-    <n v="30"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="615"/>
-    <n v="3"/>
-    <n v="1845"/>
-    <d v="2022-06-11T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="330"/>
-    <n v="173"/>
-    <n v="6"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="416"/>
-    <n v="2"/>
-    <n v="832"/>
-    <d v="2022-04-28T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="331"/>
-    <n v="69"/>
-    <n v="46"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="774"/>
-    <n v="4"/>
-    <n v="3096"/>
-    <d v="2022-09-16T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="332"/>
-    <n v="160"/>
-    <n v="19"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="821"/>
-    <n v="3"/>
-    <n v="2463"/>
-    <d v="2022-11-02T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="333"/>
-    <n v="172"/>
-    <n v="32"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="947"/>
-    <n v="3"/>
-    <n v="2841"/>
-    <d v="2022-09-25T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="334"/>
-    <n v="193"/>
-    <n v="9"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="451"/>
-    <n v="2"/>
-    <n v="902"/>
-    <d v="2022-02-23T00:00:00"/>
-    <n v="25"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="335"/>
-    <n v="87"/>
-    <n v="12"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="130"/>
-    <d v="2022-08-24T00:00:00"/>
-    <n v="51"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="336"/>
-    <n v="101"/>
-    <n v="11"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-08-10T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="337"/>
-    <n v="8"/>
-    <n v="46"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="614"/>
-    <n v="1"/>
-    <n v="614"/>
-    <d v="2022-09-08T00:00:00"/>
-    <n v="49"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="338"/>
-    <n v="77"/>
-    <n v="16"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="255"/>
-    <n v="4"/>
-    <n v="1020"/>
-    <d v="2022-11-09T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="339"/>
-    <n v="200"/>
-    <n v="1"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="511"/>
-    <n v="3"/>
-    <n v="1533"/>
-    <d v="2022-04-22T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="340"/>
-    <n v="87"/>
-    <n v="45"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="971"/>
-    <n v="4"/>
-    <n v="3884"/>
-    <d v="2022-09-12T00:00:00"/>
-    <n v="49"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="341"/>
-    <n v="43"/>
-    <n v="21"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="826"/>
-    <n v="1"/>
-    <n v="826"/>
-    <d v="2022-10-30T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="342"/>
-    <n v="129"/>
-    <n v="30"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="511"/>
-    <n v="1"/>
-    <n v="511"/>
-    <d v="2022-07-26T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="343"/>
-    <n v="109"/>
-    <n v="13"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="511"/>
-    <n v="4"/>
-    <n v="2044"/>
-    <d v="2022-08-17T00:00:00"/>
-    <n v="33"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="344"/>
-    <n v="179"/>
-    <n v="34"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="439"/>
-    <n v="1"/>
-    <n v="439"/>
-    <d v="2022-12-07T00:00:00"/>
-    <n v="21"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="345"/>
-    <n v="152"/>
-    <n v="4"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-03-07T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="346"/>
-    <n v="152"/>
-    <n v="28"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="779"/>
-    <n v="3"/>
-    <n v="2337"/>
-    <d v="2022-03-16T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="347"/>
-    <n v="17"/>
-    <n v="38"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-04-13T00:00:00"/>
-    <n v="31"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="348"/>
-    <n v="133"/>
-    <n v="31"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="841"/>
-    <n v="3"/>
-    <n v="2523"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="349"/>
-    <n v="148"/>
-    <n v="27"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-09-09T00:00:00"/>
-    <n v="35"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="350"/>
-    <n v="21"/>
-    <n v="5"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-08-14T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="351"/>
-    <n v="58"/>
-    <n v="25"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="439"/>
-    <n v="4"/>
-    <n v="1756"/>
-    <d v="2022-10-21T00:00:00"/>
-    <n v="27"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="352"/>
-    <n v="159"/>
-    <n v="3"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="971"/>
-    <n v="1"/>
-    <n v="971"/>
-    <d v="2022-11-02T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="353"/>
-    <n v="110"/>
-    <n v="33"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="416"/>
-    <n v="4"/>
-    <n v="1664"/>
-    <d v="2022-04-08T00:00:00"/>
-    <n v="50"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="354"/>
-    <n v="139"/>
-    <n v="4"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="614"/>
-    <n v="4"/>
-    <n v="2456"/>
-    <d v="2022-12-04T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="355"/>
-    <n v="180"/>
-    <n v="25"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="798"/>
-    <n v="2"/>
-    <n v="1596"/>
-    <d v="2022-10-13T00:00:00"/>
-    <n v="38"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="356"/>
-    <n v="143"/>
-    <n v="20"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-12-01T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="357"/>
-    <n v="135"/>
-    <n v="34"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="51"/>
-    <n v="2"/>
-    <n v="102"/>
-    <d v="2022-12-13T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="358"/>
-    <n v="28"/>
-    <n v="26"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="437"/>
-    <n v="1"/>
-    <n v="437"/>
-    <d v="2022-11-04T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="359"/>
-    <n v="51"/>
-    <n v="5"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="865"/>
-    <n v="2"/>
-    <n v="1730"/>
-    <d v="2022-09-06T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="360"/>
-    <n v="186"/>
-    <n v="35"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="947"/>
-    <n v="3"/>
-    <n v="2841"/>
-    <d v="2022-06-15T00:00:00"/>
-    <n v="35"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="361"/>
-    <n v="5"/>
-    <n v="28"/>
-    <s v="T-shirt"/>
-    <x v="0"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-12-01T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="362"/>
-    <n v="5"/>
-    <n v="29"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="826"/>
-    <n v="1"/>
-    <n v="826"/>
-    <d v="2022-01-30T00:00:00"/>
-    <n v="18"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="363"/>
-    <n v="94"/>
-    <n v="9"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="947"/>
-    <n v="1"/>
-    <n v="947"/>
-    <d v="2022-09-04T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="364"/>
-    <n v="96"/>
-    <n v="38"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="992"/>
-    <n v="4"/>
-    <n v="3968"/>
-    <d v="2022-04-16T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="365"/>
-    <n v="8"/>
-    <n v="50"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="752"/>
-    <n v="1"/>
-    <n v="752"/>
-    <d v="2022-02-20T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="366"/>
-    <n v="64"/>
-    <n v="6"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="345"/>
-    <n v="1"/>
-    <n v="345"/>
-    <d v="2022-03-22T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="367"/>
-    <n v="138"/>
-    <n v="19"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="155"/>
-    <n v="2"/>
-    <n v="310"/>
-    <d v="2022-05-13T00:00:00"/>
-    <n v="59"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="368"/>
-    <n v="38"/>
-    <n v="44"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="871"/>
-    <n v="1"/>
-    <n v="871"/>
-    <d v="2022-10-12T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="369"/>
-    <n v="111"/>
-    <n v="11"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-05-18T00:00:00"/>
-    <n v="20"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="370"/>
-    <n v="112"/>
-    <n v="2"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="821"/>
-    <n v="3"/>
-    <n v="2463"/>
-    <d v="2022-07-03T00:00:00"/>
-    <n v="40"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="371"/>
-    <n v="81"/>
-    <n v="47"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="871"/>
-    <n v="4"/>
-    <n v="3484"/>
-    <d v="2022-11-26T00:00:00"/>
-    <n v="29"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="372"/>
-    <n v="136"/>
-    <n v="44"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="798"/>
-    <n v="1"/>
-    <n v="798"/>
-    <d v="2022-09-30T00:00:00"/>
-    <n v="37"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="373"/>
-    <n v="104"/>
-    <n v="44"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="387"/>
-    <n v="4"/>
-    <n v="1548"/>
-    <d v="2022-12-06T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="374"/>
-    <n v="153"/>
-    <n v="9"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="251"/>
-    <n v="3"/>
-    <n v="753"/>
-    <d v="2022-03-10T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="375"/>
-    <n v="73"/>
-    <n v="21"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="251"/>
-    <n v="1"/>
-    <n v="251"/>
-    <d v="2022-02-03T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="376"/>
-    <n v="194"/>
-    <n v="24"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="1"/>
-    <n v="389"/>
-    <d v="2022-09-19T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="377"/>
-    <n v="178"/>
-    <n v="34"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="320"/>
-    <n v="4"/>
-    <n v="1280"/>
-    <d v="2022-02-22T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="378"/>
-    <n v="195"/>
-    <n v="22"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="387"/>
-    <n v="3"/>
-    <n v="1161"/>
-    <d v="2022-07-24T00:00:00"/>
-    <n v="51"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="379"/>
-    <n v="49"/>
-    <n v="3"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="345"/>
-    <n v="1"/>
-    <n v="345"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="380"/>
-    <n v="36"/>
-    <n v="12"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-08-23T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="381"/>
-    <n v="126"/>
-    <n v="28"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="345"/>
-    <n v="3"/>
-    <n v="1035"/>
-    <d v="2022-02-12T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="382"/>
-    <n v="68"/>
-    <n v="30"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="776"/>
-    <n v="4"/>
-    <n v="3104"/>
-    <d v="2022-08-28T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="383"/>
-    <n v="78"/>
-    <n v="26"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="981"/>
-    <n v="2"/>
-    <n v="1962"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="384"/>
-    <n v="105"/>
-    <n v="48"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-09-06T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="385"/>
-    <n v="169"/>
-    <n v="21"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="841"/>
-    <n v="2"/>
-    <n v="1682"/>
-    <d v="2022-05-31T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="386"/>
-    <n v="122"/>
-    <n v="28"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="439"/>
-    <n v="3"/>
-    <n v="1317"/>
-    <d v="2022-07-02T00:00:00"/>
-    <n v="47"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="387"/>
-    <n v="119"/>
-    <n v="26"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="477"/>
-    <n v="2"/>
-    <n v="954"/>
-    <d v="2022-12-02T00:00:00"/>
-    <n v="63"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="388"/>
-    <n v="190"/>
-    <n v="33"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="141"/>
-    <n v="2"/>
-    <n v="282"/>
-    <d v="2022-04-05T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="389"/>
-    <n v="114"/>
-    <n v="21"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="798"/>
-    <n v="3"/>
-    <n v="2394"/>
-    <d v="2022-01-08T00:00:00"/>
-    <n v="49"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="390"/>
-    <n v="10"/>
-    <n v="35"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="865"/>
-    <n v="4"/>
-    <n v="3460"/>
-    <d v="2022-12-26T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="391"/>
-    <n v="149"/>
-    <n v="34"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="776"/>
-    <n v="2"/>
-    <n v="1552"/>
-    <d v="2022-07-03T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="392"/>
-    <n v="164"/>
-    <n v="41"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="615"/>
-    <n v="4"/>
-    <n v="2460"/>
-    <d v="2022-10-08T00:00:00"/>
-    <n v="31"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="393"/>
-    <n v="140"/>
-    <n v="47"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="751"/>
-    <n v="2"/>
-    <n v="1502"/>
-    <d v="2022-07-14T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="394"/>
-    <n v="91"/>
-    <n v="18"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="4"/>
-    <n v="1556"/>
-    <d v="2022-12-18T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="395"/>
-    <n v="2"/>
-    <n v="11"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="345"/>
-    <n v="3"/>
-    <n v="1035"/>
-    <d v="2022-07-14T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="396"/>
-    <n v="118"/>
-    <n v="23"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="155"/>
-    <n v="2"/>
-    <n v="310"/>
-    <d v="2022-06-04T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="397"/>
-    <n v="13"/>
-    <n v="48"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="611"/>
-    <n v="3"/>
-    <n v="1833"/>
-    <d v="2022-04-03T00:00:00"/>
-    <n v="42"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="398"/>
-    <n v="181"/>
-    <n v="22"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="992"/>
-    <n v="2"/>
-    <n v="1984"/>
-    <d v="2022-06-09T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="399"/>
-    <n v="160"/>
-    <n v="17"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-03-02T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="400"/>
-    <n v="95"/>
-    <n v="5"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="981"/>
-    <n v="3"/>
-    <n v="2943"/>
-    <d v="2022-05-02T00:00:00"/>
-    <n v="39"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="401"/>
-    <n v="144"/>
-    <n v="44"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="614"/>
-    <n v="2"/>
-    <n v="1228"/>
-    <d v="2022-02-20T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="402"/>
-    <n v="32"/>
-    <n v="11"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="605"/>
-    <n v="2"/>
-    <n v="1210"/>
-    <d v="2022-10-04T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="403"/>
-    <n v="32"/>
-    <n v="30"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="615"/>
-    <n v="2"/>
-    <n v="1230"/>
-    <d v="2022-01-05T00:00:00"/>
-    <n v="21"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="404"/>
-    <n v="124"/>
-    <n v="15"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="477"/>
-    <n v="1"/>
-    <n v="477"/>
-    <d v="2022-04-02T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="405"/>
-    <n v="11"/>
-    <n v="27"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-06-19T00:00:00"/>
-    <n v="46"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="406"/>
-    <n v="10"/>
-    <n v="35"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-11-13T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="407"/>
-    <n v="15"/>
-    <n v="33"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="505"/>
-    <n v="1"/>
-    <n v="505"/>
-    <d v="2022-01-22T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="408"/>
-    <n v="17"/>
-    <n v="20"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-11-22T00:00:00"/>
-    <n v="40"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="409"/>
-    <n v="168"/>
-    <n v="16"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="84"/>
-    <n v="2"/>
-    <n v="168"/>
-    <d v="2022-01-01T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="410"/>
-    <n v="146"/>
-    <n v="34"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-05-13T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="411"/>
-    <n v="183"/>
-    <n v="2"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="387"/>
-    <n v="3"/>
-    <n v="1161"/>
-    <d v="2022-08-21T00:00:00"/>
-    <n v="23"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="412"/>
-    <n v="153"/>
-    <n v="35"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="928"/>
-    <n v="1"/>
-    <n v="928"/>
-    <d v="2022-01-12T00:00:00"/>
-    <n v="35"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="413"/>
-    <n v="59"/>
-    <n v="40"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="102"/>
-    <n v="2"/>
-    <n v="204"/>
-    <d v="2022-12-12T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="414"/>
-    <n v="78"/>
-    <n v="28"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="155"/>
-    <n v="3"/>
-    <n v="465"/>
-    <d v="2022-02-15T00:00:00"/>
-    <n v="59"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="415"/>
-    <n v="124"/>
-    <n v="47"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="798"/>
-    <n v="2"/>
-    <n v="1596"/>
-    <d v="2022-02-03T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="416"/>
-    <n v="114"/>
-    <n v="39"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="611"/>
-    <n v="3"/>
-    <n v="1833"/>
-    <d v="2022-03-19T00:00:00"/>
-    <n v="58"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="417"/>
-    <n v="22"/>
-    <n v="6"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="301"/>
-    <n v="2"/>
-    <n v="602"/>
-    <d v="2022-08-06T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="418"/>
-    <n v="158"/>
-    <n v="9"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="439"/>
-    <n v="1"/>
-    <n v="439"/>
-    <d v="2022-10-28T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="419"/>
-    <n v="172"/>
-    <n v="20"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="395"/>
-    <n v="4"/>
-    <n v="1580"/>
-    <d v="2022-03-14T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="420"/>
-    <n v="32"/>
-    <n v="1"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="505"/>
-    <n v="1"/>
-    <n v="505"/>
-    <d v="2022-10-09T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="421"/>
-    <n v="179"/>
-    <n v="8"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="141"/>
-    <n v="4"/>
-    <n v="564"/>
-    <d v="2022-09-06T00:00:00"/>
-    <n v="42"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="422"/>
-    <n v="174"/>
-    <n v="23"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="769"/>
-    <n v="2"/>
-    <n v="1538"/>
-    <d v="2022-02-16T00:00:00"/>
-    <n v="55"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="423"/>
-    <n v="113"/>
-    <n v="3"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="921"/>
-    <n v="3"/>
-    <n v="2763"/>
-    <d v="2022-05-01T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="424"/>
-    <n v="120"/>
-    <n v="4"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="605"/>
-    <n v="1"/>
-    <n v="605"/>
-    <d v="2022-08-02T00:00:00"/>
-    <n v="40"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="425"/>
-    <n v="149"/>
-    <n v="25"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="615"/>
-    <n v="4"/>
-    <n v="2460"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="59"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="426"/>
-    <n v="122"/>
-    <n v="47"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="319"/>
-    <n v="1"/>
-    <n v="319"/>
-    <d v="2022-02-25T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="427"/>
-    <n v="32"/>
-    <n v="38"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="605"/>
-    <n v="4"/>
-    <n v="2420"/>
-    <d v="2022-12-16T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="428"/>
-    <n v="119"/>
-    <n v="15"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="611"/>
-    <n v="1"/>
-    <n v="611"/>
-    <d v="2022-04-17T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="429"/>
-    <n v="39"/>
-    <n v="21"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="774"/>
-    <n v="4"/>
-    <n v="3096"/>
-    <d v="2022-11-15T00:00:00"/>
-    <n v="48"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="430"/>
-    <n v="12"/>
-    <n v="35"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="251"/>
-    <n v="4"/>
-    <n v="1004"/>
-    <d v="2022-02-17T00:00:00"/>
-    <n v="23"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="431"/>
-    <n v="175"/>
-    <n v="46"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="345"/>
-    <n v="2"/>
-    <n v="690"/>
-    <d v="2022-03-02T00:00:00"/>
-    <n v="44"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="432"/>
-    <n v="18"/>
-    <n v="14"/>
-    <s v="Shoes"/>
-    <x v="2"/>
-    <n v="255"/>
-    <n v="4"/>
-    <n v="1020"/>
-    <d v="2022-12-03T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="433"/>
-    <n v="149"/>
-    <n v="36"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="558"/>
-    <n v="2"/>
-    <n v="1116"/>
-    <d v="2022-01-26T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="434"/>
-    <n v="141"/>
-    <n v="12"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-10-19T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="435"/>
-    <n v="149"/>
-    <n v="17"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="320"/>
-    <n v="3"/>
-    <n v="960"/>
-    <d v="2022-09-14T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="436"/>
-    <n v="126"/>
-    <n v="39"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="912"/>
-    <n v="3"/>
-    <n v="2736"/>
-    <d v="2022-01-08T00:00:00"/>
-    <n v="24"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="437"/>
-    <n v="136"/>
-    <n v="9"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="477"/>
-    <n v="3"/>
-    <n v="1431"/>
-    <d v="2022-04-23T00:00:00"/>
-    <n v="27"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="438"/>
-    <n v="46"/>
-    <n v="35"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="345"/>
-    <n v="4"/>
-    <n v="1380"/>
-    <d v="2022-12-21T00:00:00"/>
-    <n v="62"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="439"/>
-    <n v="104"/>
-    <n v="13"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="451"/>
-    <n v="2"/>
-    <n v="902"/>
-    <d v="2022-09-10T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="440"/>
-    <n v="135"/>
-    <n v="15"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="825"/>
-    <n v="2"/>
-    <n v="1650"/>
-    <d v="2022-06-29T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="441"/>
-    <n v="151"/>
-    <n v="18"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="255"/>
-    <n v="4"/>
-    <n v="1020"/>
-    <d v="2022-07-26T00:00:00"/>
-    <n v="38"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="442"/>
-    <n v="86"/>
-    <n v="33"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="776"/>
-    <n v="3"/>
-    <n v="2328"/>
-    <d v="2022-10-30T00:00:00"/>
-    <n v="45"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="443"/>
-    <n v="150"/>
-    <n v="6"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="928"/>
-    <n v="3"/>
-    <n v="2784"/>
-    <d v="2022-05-07T00:00:00"/>
-    <n v="63"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="444"/>
-    <n v="89"/>
-    <n v="27"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="437"/>
-    <n v="2"/>
-    <n v="874"/>
-    <d v="2022-02-25T00:00:00"/>
-    <n v="19"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="445"/>
-    <n v="22"/>
-    <n v="23"/>
-    <s v="Headphones"/>
-    <x v="0"/>
-    <n v="130"/>
-    <n v="3"/>
-    <n v="390"/>
-    <d v="2022-08-02T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="446"/>
-    <n v="92"/>
-    <n v="27"/>
-    <s v="Watch"/>
-    <x v="2"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-01-14T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="447"/>
-    <n v="29"/>
-    <n v="34"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="821"/>
-    <n v="2"/>
-    <n v="1642"/>
-    <d v="2022-01-28T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="448"/>
-    <n v="13"/>
-    <n v="46"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="504"/>
-    <n v="3"/>
-    <n v="1512"/>
-    <d v="2022-03-19T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="449"/>
-    <n v="2"/>
-    <n v="38"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-08-04T00:00:00"/>
-    <n v="46"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="450"/>
-    <n v="29"/>
-    <n v="14"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="477"/>
-    <n v="1"/>
-    <n v="477"/>
-    <d v="2022-12-31T00:00:00"/>
-    <n v="38"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="451"/>
-    <n v="180"/>
-    <n v="36"/>
-    <s v="Tablet"/>
-    <x v="1"/>
-    <n v="928"/>
-    <n v="2"/>
-    <n v="1856"/>
-    <d v="2022-06-03T00:00:00"/>
-    <n v="28"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="452"/>
-    <n v="27"/>
-    <n v="8"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="319"/>
-    <n v="2"/>
-    <n v="638"/>
-    <d v="2022-01-14T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="453"/>
-    <n v="50"/>
-    <n v="35"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="319"/>
-    <n v="2"/>
-    <n v="638"/>
-    <d v="2022-07-06T00:00:00"/>
-    <n v="28"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="454"/>
-    <n v="95"/>
-    <n v="19"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="437"/>
-    <n v="2"/>
-    <n v="874"/>
-    <d v="2022-11-08T00:00:00"/>
-    <n v="53"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="455"/>
-    <n v="151"/>
-    <n v="30"/>
-    <s v="Smartphone"/>
-    <x v="2"/>
-    <n v="614"/>
-    <n v="1"/>
-    <n v="614"/>
-    <d v="2022-01-07T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="456"/>
-    <n v="88"/>
-    <n v="14"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="558"/>
-    <n v="4"/>
-    <n v="2232"/>
-    <d v="2022-01-03T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="457"/>
-    <n v="44"/>
-    <n v="20"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="301"/>
-    <n v="2"/>
-    <n v="602"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="458"/>
-    <n v="22"/>
-    <n v="49"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="928"/>
-    <n v="2"/>
-    <n v="1856"/>
-    <d v="2022-08-26T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="459"/>
-    <n v="171"/>
-    <n v="25"/>
-    <s v="Laptop"/>
-    <x v="2"/>
-    <n v="345"/>
-    <n v="3"/>
-    <n v="1035"/>
-    <d v="2022-12-29T00:00:00"/>
-    <n v="64"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="460"/>
-    <n v="165"/>
-    <n v="40"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-08-27T00:00:00"/>
-    <n v="41"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="461"/>
-    <n v="189"/>
-    <n v="24"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="779"/>
-    <n v="3"/>
-    <n v="2337"/>
-    <d v="2022-10-01T00:00:00"/>
-    <n v="39"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="462"/>
-    <n v="97"/>
-    <n v="14"/>
-    <s v="Sunglasses"/>
-    <x v="1"/>
-    <n v="971"/>
-    <n v="4"/>
-    <n v="3884"/>
-    <d v="2022-10-21T00:00:00"/>
-    <n v="22"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="463"/>
-    <n v="184"/>
-    <n v="26"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-08-15T00:00:00"/>
-    <n v="50"/>
-    <s v="Male"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="464"/>
-    <n v="3"/>
-    <n v="38"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="84"/>
-    <n v="1"/>
-    <n v="84"/>
-    <d v="2022-01-15T00:00:00"/>
-    <n v="53"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="465"/>
-    <n v="191"/>
-    <n v="23"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="826"/>
-    <n v="4"/>
-    <n v="3304"/>
-    <d v="2022-07-11T00:00:00"/>
-    <n v="64"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="466"/>
-    <n v="118"/>
-    <n v="22"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="912"/>
-    <n v="1"/>
-    <n v="912"/>
-    <d v="2022-04-29T00:00:00"/>
-    <n v="37"/>
-    <s v="Female"/>
-    <s v="Australia"/>
-  </r>
-  <r>
-    <n v="467"/>
-    <n v="19"/>
-    <n v="48"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-01-28T00:00:00"/>
-    <n v="36"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="468"/>
-    <n v="23"/>
-    <n v="19"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="102"/>
-    <n v="4"/>
-    <n v="408"/>
-    <d v="2022-07-21T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="469"/>
-    <n v="157"/>
-    <n v="46"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="928"/>
-    <n v="4"/>
-    <n v="3712"/>
-    <d v="2022-02-08T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="470"/>
-    <n v="30"/>
-    <n v="3"/>
-    <s v="Smartphone"/>
-    <x v="0"/>
-    <n v="84"/>
-    <n v="1"/>
-    <n v="84"/>
-    <d v="2022-09-30T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="471"/>
-    <n v="39"/>
-    <n v="42"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="102"/>
-    <n v="3"/>
-    <n v="306"/>
-    <d v="2022-08-19T00:00:00"/>
-    <n v="62"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="472"/>
-    <n v="108"/>
-    <n v="19"/>
-    <s v="Jacket"/>
-    <x v="0"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-03-27T00:00:00"/>
-    <n v="60"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="473"/>
-    <n v="111"/>
-    <n v="9"/>
-    <s v="Shoes"/>
-    <x v="0"/>
-    <n v="779"/>
-    <n v="2"/>
-    <n v="1558"/>
-    <d v="2022-05-06T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="474"/>
-    <n v="25"/>
-    <n v="28"/>
-    <s v="Watch"/>
-    <x v="0"/>
-    <n v="776"/>
-    <n v="1"/>
-    <n v="776"/>
-    <d v="2022-10-27T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="475"/>
-    <n v="128"/>
-    <n v="20"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="821"/>
-    <n v="4"/>
-    <n v="3284"/>
-    <d v="2022-01-25T00:00:00"/>
-    <n v="43"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="476"/>
-    <n v="111"/>
-    <n v="45"/>
-    <s v="Jacket"/>
-    <x v="2"/>
-    <n v="526"/>
-    <n v="4"/>
-    <n v="2104"/>
-    <d v="2022-05-25T00:00:00"/>
-    <n v="19"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="477"/>
-    <n v="136"/>
-    <n v="7"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="611"/>
-    <n v="2"/>
-    <n v="1222"/>
-    <d v="2022-01-13T00:00:00"/>
-    <n v="26"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="478"/>
-    <n v="106"/>
-    <n v="14"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="416"/>
-    <n v="3"/>
-    <n v="1248"/>
-    <d v="2022-07-31T00:00:00"/>
-    <n v="26"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="479"/>
-    <n v="186"/>
-    <n v="9"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="84"/>
-    <n v="3"/>
-    <n v="252"/>
-    <d v="2022-01-25T00:00:00"/>
-    <n v="57"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="480"/>
-    <n v="144"/>
-    <n v="19"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="389"/>
-    <n v="3"/>
-    <n v="1167"/>
-    <d v="2022-03-09T00:00:00"/>
-    <n v="34"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="481"/>
-    <n v="72"/>
-    <n v="47"/>
-    <s v="Headphones"/>
-    <x v="1"/>
-    <n v="526"/>
-    <n v="4"/>
-    <n v="2104"/>
-    <d v="2022-03-08T00:00:00"/>
-    <n v="18"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="482"/>
-    <n v="129"/>
-    <n v="14"/>
-    <s v="Headphones"/>
-    <x v="2"/>
-    <n v="841"/>
-    <n v="4"/>
-    <n v="3364"/>
-    <d v="2022-08-21T00:00:00"/>
-    <n v="42"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="483"/>
-    <n v="108"/>
-    <n v="38"/>
-    <s v="Smartphone"/>
-    <x v="1"/>
-    <n v="614"/>
-    <n v="4"/>
-    <n v="2456"/>
-    <d v="2022-04-19T00:00:00"/>
-    <n v="60"/>
-    <s v="Female"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="484"/>
-    <n v="5"/>
-    <n v="36"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="416"/>
-    <n v="1"/>
-    <n v="416"/>
-    <d v="2022-05-26T00:00:00"/>
-    <n v="57"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="485"/>
-    <n v="3"/>
-    <n v="40"/>
-    <s v="T-shirt"/>
-    <x v="1"/>
-    <n v="841"/>
-    <n v="2"/>
-    <n v="1682"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="59"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="486"/>
-    <n v="193"/>
-    <n v="17"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="776"/>
-    <n v="4"/>
-    <n v="3104"/>
-    <d v="2022-08-16T00:00:00"/>
-    <n v="42"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="487"/>
-    <n v="132"/>
-    <n v="30"/>
-    <s v="Shoes"/>
-    <x v="1"/>
-    <n v="826"/>
-    <n v="2"/>
-    <n v="1652"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="56"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="488"/>
-    <n v="104"/>
-    <n v="9"/>
-    <s v="Tablet"/>
-    <x v="0"/>
-    <n v="841"/>
-    <n v="2"/>
-    <n v="1682"/>
-    <d v="2022-02-03T00:00:00"/>
-    <n v="52"/>
-    <s v="Female"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="489"/>
-    <n v="64"/>
-    <n v="33"/>
-    <s v="T-shirt"/>
-    <x v="2"/>
-    <n v="611"/>
-    <n v="3"/>
-    <n v="1833"/>
-    <d v="2022-04-21T00:00:00"/>
-    <n v="20"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="490"/>
-    <n v="106"/>
-    <n v="25"/>
-    <s v="Watch"/>
-    <x v="1"/>
-    <n v="774"/>
-    <n v="1"/>
-    <n v="774"/>
-    <d v="2022-09-21T00:00:00"/>
-    <n v="54"/>
-    <s v="Male"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="491"/>
-    <n v="98"/>
-    <n v="14"/>
-    <s v="Laptop"/>
-    <x v="0"/>
-    <n v="871"/>
-    <n v="4"/>
-    <n v="3484"/>
-    <d v="2022-08-24T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="492"/>
-    <n v="10"/>
-    <n v="11"/>
-    <s v="Sunglasses"/>
-    <x v="2"/>
-    <n v="614"/>
-    <n v="3"/>
-    <n v="1842"/>
-    <d v="2022-03-24T00:00:00"/>
-    <n v="61"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="493"/>
-    <n v="149"/>
-    <n v="35"/>
-    <s v="Camera"/>
-    <x v="0"/>
-    <n v="130"/>
-    <n v="3"/>
-    <n v="390"/>
-    <d v="2022-02-11T00:00:00"/>
-    <n v="47"/>
-    <s v="Female"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="494"/>
-    <n v="128"/>
-    <n v="41"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="779"/>
-    <n v="4"/>
-    <n v="3116"/>
-    <d v="2022-04-11T00:00:00"/>
-    <n v="55"/>
-    <s v="Male"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="495"/>
-    <n v="46"/>
-    <n v="14"/>
-    <s v="Laptop"/>
-    <x v="1"/>
-    <n v="774"/>
-    <n v="2"/>
-    <n v="1548"/>
-    <d v="2022-01-06T00:00:00"/>
-    <n v="51"/>
-    <s v="Male"/>
-    <s v="UK"/>
-  </r>
-  <r>
-    <n v="496"/>
-    <n v="155"/>
-    <n v="30"/>
-    <s v="Jacket"/>
-    <x v="1"/>
-    <n v="251"/>
-    <n v="3"/>
-    <n v="753"/>
-    <d v="2022-06-29T00:00:00"/>
-    <n v="29"/>
-    <s v="Male"/>
-    <s v="Germany"/>
-  </r>
-  <r>
-    <n v="497"/>
-    <n v="66"/>
-    <n v="41"/>
-    <s v="Tablet"/>
-    <x v="2"/>
-    <n v="526"/>
-    <n v="2"/>
-    <n v="1052"/>
-    <d v="2022-10-09T00:00:00"/>
-    <n v="36"/>
-    <s v="Female"/>
-    <s v="Canada"/>
-  </r>
-  <r>
-    <n v="498"/>
-    <n v="169"/>
-    <n v="4"/>
-    <s v="Camera"/>
-    <x v="1"/>
-    <n v="981"/>
-    <n v="1"/>
-    <n v="981"/>
-    <d v="2022-11-16T00:00:00"/>
-    <n v="54"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-  <r>
-    <n v="499"/>
-    <n v="112"/>
-    <n v="4"/>
-    <s v="Sunglasses"/>
-    <x v="0"/>
-    <n v="871"/>
-    <n v="2"/>
-    <n v="1742"/>
-    <d v="2022-08-14T00:00:00"/>
-    <n v="61"/>
-    <s v="Male"/>
-    <s v="France"/>
-  </r>
-  <r>
-    <n v="500"/>
-    <n v="13"/>
-    <n v="28"/>
-    <s v="Camera"/>
-    <x v="2"/>
-    <n v="451"/>
-    <n v="1"/>
-    <n v="451"/>
-    <d v="2022-11-11T00:00:00"/>
-    <n v="34"/>
-    <s v="Female"/>
-    <s v="USA"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F6EE0D9-F26D-4CAC-9D1C-86A980634C93}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of sales" fld="7" baseField="4" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D632EC0-6437-4650-BFB1-D0B9B9B5B64A}" name="sales" displayName="sales" ref="A1:L501" totalsRowShown="0">
   <autoFilter ref="A1:L501" xr:uid="{0D632EC0-6437-4650-BFB1-D0B9B9B5B64A}"/>
@@ -7386,8 +247,8 @@
     <tableColumn id="5" xr3:uid="{A7991B6A-F299-4F62-B8A9-00AB8D7AA87F}" name="category"/>
     <tableColumn id="6" xr3:uid="{4A969527-2D2B-4914-86E4-F878432C968C}" name="unit_price"/>
     <tableColumn id="7" xr3:uid="{D5E7D4E1-3A74-477F-A860-D841F26CAA7F}" name="quantity"/>
-    <tableColumn id="12" xr3:uid="{2F44EDD5-910D-40F3-AB02-5F0667E1DA2D}" name="sales" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{8F235AA4-9C66-4548-826D-A41C4FA6E4E1}" name="order_date" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{2F44EDD5-910D-40F3-AB02-5F0667E1DA2D}" name="sales" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8F235AA4-9C66-4548-826D-A41C4FA6E4E1}" name="order_date" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{0F74B8ED-48BE-4E67-9A42-2DC142D4639E}" name="customer_age"/>
     <tableColumn id="11" xr3:uid="{DCD9C988-ACF0-46ED-BB36-1F3B539A8A2C}" name="country"/>
     <tableColumn id="10" xr3:uid="{83D12B8A-8E3F-4B85-9AF4-F66023B01063}" name="customer_gender"/>
@@ -26788,217 +19649,280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE116CAA-77DD-4A0E-9CD0-22F0C9517DDE}">
-  <dimension ref="A1:V12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F01C33-8CC9-4AE3-B8A1-A4D94F4EF845}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="2"/>
+    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="str" cm="1">
-        <f t="array" ref="D3:E7">_xlfn.GROUPBY(sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM, 3)</f>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:B5">_xlfn.GROUPBY(sales[[#All],[category]],
+sales[[#All],[sales]], _xleta.SUM, 3)</f>
         <v>category</v>
       </c>
-      <c r="E3" t="str">
+      <c r="B1" s="2" t="str">
         <v>sales</v>
       </c>
-      <c r="G3" t="str" cm="1">
-        <f t="array" ref="G3:H7">_xlfn.PIVOTBY(sales[[#All],[category]], ,
-sales[[#All],[sales]],
-_xleta.SUM, 3)</f>
+      <c r="D1" s="2" t="str" cm="1">
+        <f t="array" ref="D1:G4">_xlfn.PIVOTBY( ,sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM, 3)</f>
         <v>category</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="E1" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A2" s="2" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B2" s="2">
+        <v>280575</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A3" s="2" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="B3" s="2">
+        <v>209136</v>
+      </c>
+      <c r="D3" s="2" t="str">
         <v>sales</v>
       </c>
-      <c r="S3" t="str" cm="1">
-        <f t="array" ref="S3:T6">_xlfn.PIVOTBY(sales[category], , sales[sales], _xleta.SUM)</f>
+      <c r="E3" s="2" t="str">
+        <v>sales</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <v>sales</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A4" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="B4" s="2">
+        <v>242079</v>
+      </c>
+      <c r="D4" s="2">
+        <v>280575</v>
+      </c>
+      <c r="E4" s="2">
+        <v>209136</v>
+      </c>
+      <c r="F4" s="2">
+        <v>242079</v>
+      </c>
+      <c r="G4" s="2">
+        <v>731790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A5" s="2" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B5" s="2">
+        <v>731790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A7" s="2" t="str" cm="1">
+        <f t="array" ref="A7:E16">_xlfn.PIVOTBY(sales[[#All],[country]], sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM, 3)</f>
+        <v/>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>category</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A8" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B8" s="2" t="str">
         <v>Accessories</v>
       </c>
-      <c r="T3" s="4">
+      <c r="C8" s="2" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A9" s="2" t="str">
+        <v>country</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>sales</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <v>sales</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A10" s="2" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="B10" s="2">
+        <v>37384</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31291</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45992</v>
+      </c>
+      <c r="E10" s="2">
+        <v>114667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A11" s="2" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="B11" s="2">
+        <v>56126</v>
+      </c>
+      <c r="C11" s="2">
+        <v>49508</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32594</v>
+      </c>
+      <c r="E11" s="2">
+        <v>138228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A12" s="2" t="str">
+        <v>France</v>
+      </c>
+      <c r="B12" s="2">
+        <v>39300</v>
+      </c>
+      <c r="C12" s="2">
+        <v>29578</v>
+      </c>
+      <c r="D12" s="2">
+        <v>34912</v>
+      </c>
+      <c r="E12" s="2">
+        <v>103790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A13" s="2" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B13" s="2">
+        <v>49756</v>
+      </c>
+      <c r="C13" s="2">
+        <v>33187</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45052</v>
+      </c>
+      <c r="E13" s="2">
+        <v>127995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A14" s="2" t="str">
+        <v>UK</v>
+      </c>
+      <c r="B14" s="2">
+        <v>47417</v>
+      </c>
+      <c r="C14" s="2">
+        <v>33206</v>
+      </c>
+      <c r="D14" s="2">
+        <v>27826</v>
+      </c>
+      <c r="E14" s="2">
+        <v>108449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A15" s="2" t="str">
+        <v>USA</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50592</v>
+      </c>
+      <c r="C15" s="2">
+        <v>32366</v>
+      </c>
+      <c r="D15" s="2">
+        <v>55703</v>
+      </c>
+      <c r="E15" s="2">
+        <v>138661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="A16" s="2" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B16" s="2">
         <v>280575</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4">
-        <v>280575</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="E4">
-        <v>280575</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="H4" s="4">
-        <v>280575</v>
-      </c>
-      <c r="S4" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="C16" s="2">
         <v>209136</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4">
-        <v>209136</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="E5">
-        <v>209136</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="H5" s="4">
-        <v>209136</v>
-      </c>
-      <c r="S5" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="D16" s="2">
         <v>242079</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>242079</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="E6">
-        <v>242079</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="H6" s="4">
-        <v>242079</v>
-      </c>
-      <c r="S6" t="str">
-        <v>Total</v>
-      </c>
-      <c r="T6" s="4">
-        <v>731790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="4">
-        <v>731790</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E7">
-        <v>731790</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Total</v>
-      </c>
-      <c r="H7" s="4">
-        <v>731790</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="D9" t="str" cm="1">
-        <f t="array" ref="D9:G12">_xlfn.PIVOTBY( , sales[[#All],[category]],
-sales[[#All],[sales]],
-_xleta.SUM, 3)</f>
-        <v>category</v>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="D10" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Total</v>
-      </c>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="D11" t="str">
-        <v>sales</v>
-      </c>
-      <c r="E11" t="str">
-        <v>sales</v>
-      </c>
-      <c r="F11" t="str">
-        <v>sales</v>
-      </c>
-      <c r="G11" t="str">
-        <v>sales</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.9">
-      <c r="D12">
-        <v>280575</v>
-      </c>
-      <c r="E12">
-        <v>209136</v>
-      </c>
-      <c r="F12">
-        <v>242079</v>
-      </c>
-      <c r="G12">
+      <c r="E16" s="2">
         <v>731790</v>
       </c>
     </row>
@@ -27008,38 +19932,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473EED76-4FB4-4A56-BDD3-B1208FF8814E}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F4AD3E-98E7-4114-B280-6DBED7336282}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
-  <cols>
-    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.9">
       <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:E10">_xlfn.PIVOTBY( sales[[#All],[country]],
-sales[[#All],[category]],
-sales[[#All],[sales]],
-_xleta.SUM, 3)</f>
+        <f t="array" ref="A1:J17">_xlfn.PIVOTBY(sales[[#All],[country]:[customer_gender]], sales[[#All],[category]], sales[[#All],[quantity]:[sales]], _xlfn.HSTACK(_xleta.AVERAGE, _xleta.SUM), 3)</f>
         <v/>
       </c>
       <c r="B1" t="str">
+        <v/>
+      </c>
+      <c r="C1" t="str">
         <v>category</v>
-      </c>
-      <c r="C1" t="str">
-        <v/>
       </c>
       <c r="D1" t="str">
         <v/>
@@ -27047,167 +19956,541 @@
       <c r="E1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.9">
       <c r="A2" t="str">
         <v/>
       </c>
       <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
         <v>Accessories</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="E2" t="str">
         <v>Clothing</v>
       </c>
-      <c r="D2" t="str">
+      <c r="F2" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="G2" t="str">
         <v>Electronics</v>
       </c>
-      <c r="E2" t="str">
+      <c r="H2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="I2" t="str">
         <v>Total</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="J2" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.9">
       <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="D3" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="E3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="F3" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="G3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="H3" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="I3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="J3" t="str">
+        <v>SUM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A4" t="str">
         <v>country</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B4" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="C4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="D4" t="str">
         <v>sales</v>
       </c>
-      <c r="C3" t="str">
+      <c r="E4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="F4" t="str">
         <v>sales</v>
       </c>
-      <c r="D3" t="str">
+      <c r="G4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H4" t="str">
         <v>sales</v>
       </c>
-      <c r="E3" t="str">
+      <c r="I4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="J4" t="str">
         <v>sales</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A4" t="str">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A5" t="str">
         <v>Australia</v>
       </c>
-      <c r="B4">
-        <v>37384</v>
-      </c>
-      <c r="C4">
-        <v>31291</v>
-      </c>
-      <c r="D4">
-        <v>45992</v>
-      </c>
-      <c r="E4">
-        <v>114667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A5" t="str">
+      <c r="B5" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C5">
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="D5">
+        <v>17701</v>
+      </c>
+      <c r="E5">
+        <v>2.75</v>
+      </c>
+      <c r="F5">
+        <v>16669</v>
+      </c>
+      <c r="G5">
+        <v>2.1875</v>
+      </c>
+      <c r="H5">
+        <v>20803</v>
+      </c>
+      <c r="I5">
+        <v>2.3095238095238093</v>
+      </c>
+      <c r="J5">
+        <v>55173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A6" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C6">
+        <v>2.2777777777777777</v>
+      </c>
+      <c r="D6">
+        <v>19683</v>
+      </c>
+      <c r="E6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6">
+        <v>14622</v>
+      </c>
+      <c r="G6">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H6">
+        <v>25189</v>
+      </c>
+      <c r="I6">
+        <v>2.4761904761904763</v>
+      </c>
+      <c r="J6">
+        <v>59494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A7" t="str">
         <v>Canada</v>
       </c>
-      <c r="B5">
-        <v>56126</v>
-      </c>
-      <c r="C5">
-        <v>49508</v>
-      </c>
-      <c r="D5">
-        <v>32594</v>
-      </c>
-      <c r="E5">
-        <v>138228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A6" t="str">
+      <c r="B7" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C7">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="D7">
+        <v>31902</v>
+      </c>
+      <c r="E7">
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="F7">
+        <v>28613</v>
+      </c>
+      <c r="G7">
+        <v>2.6</v>
+      </c>
+      <c r="H7">
+        <v>12630</v>
+      </c>
+      <c r="I7">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="J7">
+        <v>73145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A8" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C8">
+        <v>2.5625</v>
+      </c>
+      <c r="D8">
+        <v>24224</v>
+      </c>
+      <c r="E8">
+        <v>2.4</v>
+      </c>
+      <c r="F8">
+        <v>20895</v>
+      </c>
+      <c r="G8">
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="H8">
+        <v>19964</v>
+      </c>
+      <c r="I8">
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="J8">
+        <v>65083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A9" t="str">
         <v>France</v>
       </c>
-      <c r="B6">
-        <v>39300</v>
-      </c>
-      <c r="C6">
-        <v>29578</v>
-      </c>
-      <c r="D6">
-        <v>34912</v>
-      </c>
-      <c r="E6">
-        <v>103790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A7" t="str">
+      <c r="B9" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C9">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="D9">
+        <v>19316</v>
+      </c>
+      <c r="E9">
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="F9">
+        <v>16285</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>22355</v>
+      </c>
+      <c r="I9">
+        <v>2.5319148936170213</v>
+      </c>
+      <c r="J9">
+        <v>57956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A10" t="str">
+        <v>France</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C10">
+        <v>2.75</v>
+      </c>
+      <c r="D10">
+        <v>19984</v>
+      </c>
+      <c r="E10">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="F10">
+        <v>13293</v>
+      </c>
+      <c r="G10">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H10">
+        <v>12557</v>
+      </c>
+      <c r="I10">
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="J10">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A11" t="str">
         <v>Germany</v>
       </c>
-      <c r="B7">
-        <v>49756</v>
-      </c>
-      <c r="C7">
-        <v>33187</v>
-      </c>
-      <c r="D7">
-        <v>45052</v>
-      </c>
-      <c r="E7">
-        <v>127995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A8" t="str">
+      <c r="B11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C11">
+        <v>2.5789473684210527</v>
+      </c>
+      <c r="D11">
+        <v>27841</v>
+      </c>
+      <c r="E11">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="F11">
+        <v>12362</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>14255</v>
+      </c>
+      <c r="I11">
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="J11">
+        <v>54458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A12" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C12">
+        <v>2.625</v>
+      </c>
+      <c r="D12">
+        <v>21915</v>
+      </c>
+      <c r="E12">
+        <v>2.8235294117647061</v>
+      </c>
+      <c r="F12">
+        <v>20825</v>
+      </c>
+      <c r="G12">
+        <v>2.6</v>
+      </c>
+      <c r="H12">
+        <v>30797</v>
+      </c>
+      <c r="I12">
+        <v>2.6792452830188678</v>
+      </c>
+      <c r="J12">
+        <v>73537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A13" t="str">
         <v>UK</v>
       </c>
-      <c r="B8">
-        <v>47417</v>
-      </c>
-      <c r="C8">
-        <v>33206</v>
-      </c>
-      <c r="D8">
-        <v>27826</v>
-      </c>
-      <c r="E8">
-        <v>108449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A9" t="str">
+      <c r="B13" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C13">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D13">
+        <v>10185</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>13422</v>
+      </c>
+      <c r="G13">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="H13">
+        <v>11228</v>
+      </c>
+      <c r="I13">
+        <v>2.6818181818181817</v>
+      </c>
+      <c r="J13">
+        <v>34835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A14" t="str">
+        <v>UK</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C14">
+        <v>2.6190476190476191</v>
+      </c>
+      <c r="D14">
+        <v>37232</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="F14">
+        <v>19784</v>
+      </c>
+      <c r="G14">
+        <v>2.8</v>
+      </c>
+      <c r="H14">
+        <v>16598</v>
+      </c>
+      <c r="I14">
+        <v>2.6279069767441858</v>
+      </c>
+      <c r="J14">
+        <v>73614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A15" t="str">
         <v>USA</v>
       </c>
-      <c r="B9">
-        <v>50592</v>
-      </c>
-      <c r="C9">
-        <v>32366</v>
-      </c>
-      <c r="D9">
-        <v>55703</v>
-      </c>
-      <c r="E9">
-        <v>138661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.9">
-      <c r="A10" t="str">
+      <c r="B15" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C15">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="D15">
+        <v>19344</v>
+      </c>
+      <c r="E15">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="F15">
+        <v>22090</v>
+      </c>
+      <c r="G15">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="H15">
+        <v>23156</v>
+      </c>
+      <c r="I15">
+        <v>2.8</v>
+      </c>
+      <c r="J15">
+        <v>64590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A16" t="str">
+        <v>USA</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C16">
+        <v>2.7647058823529411</v>
+      </c>
+      <c r="D16">
+        <v>31248</v>
+      </c>
+      <c r="E16">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="F16">
+        <v>10276</v>
+      </c>
+      <c r="G16">
+        <v>2.5</v>
+      </c>
+      <c r="H16">
+        <v>32547</v>
+      </c>
+      <c r="I16">
+        <v>2.5434782608695654</v>
+      </c>
+      <c r="J16">
+        <v>74071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A17" t="str">
         <v>Total</v>
       </c>
-      <c r="B10">
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17">
+        <v>2.5527638190954773</v>
+      </c>
+      <c r="D17">
         <v>280575</v>
       </c>
-      <c r="C10">
+      <c r="E17">
+        <v>2.5547945205479454</v>
+      </c>
+      <c r="F17">
         <v>209136</v>
       </c>
-      <c r="D10">
+      <c r="G17">
+        <v>2.6193548387096772</v>
+      </c>
+      <c r="H17">
         <v>242079</v>
       </c>
-      <c r="E10">
+      <c r="I17">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="J17">
         <v>731790</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:J170">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>C$4="sales"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C5:J17">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>C$4="quantity"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>C$4="sales"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27215,935 +20498,337 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045DAF5C-D537-4222-9D89-5CB67EEABD4B}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
-  <cols>
-    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:J17">_xlfn.PIVOTBY(sales[[#All],[country]:[customer_gender]],
-sales[[#All],[category]],
-sales[[#All],[quantity]:[sales]],
-_xlfn.HSTACK(_xleta.AVERAGE, _xleta.SUM), 3)</f>
-        <v/>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" s="5" t="str">
-        <v>category</v>
-      </c>
-      <c r="D1" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E1" s="5" t="str">
-        <v/>
-      </c>
-      <c r="F1" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
-      <c r="H1" t="str">
-        <v/>
-      </c>
-      <c r="I1" t="str">
-        <v/>
-      </c>
-      <c r="J1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="5" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="E2" s="5" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Total</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="G3" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="H3" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="I3" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="J3" t="str">
-        <v>SUM</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A4" t="str">
-        <v>country</v>
-      </c>
-      <c r="B4" t="str">
-        <v>customer_gender</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <v>sales</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <v>sales</v>
-      </c>
-      <c r="G4" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="H4" t="str">
-        <v>sales</v>
-      </c>
-      <c r="I4" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="J4" t="str">
-        <v>sales</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A5" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.0714285714285716</v>
-      </c>
-      <c r="D5" s="5">
-        <v>17701</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="F5" s="5">
-        <v>16669</v>
-      </c>
-      <c r="G5">
-        <v>2.1875</v>
-      </c>
-      <c r="H5">
-        <v>20803</v>
-      </c>
-      <c r="I5">
-        <v>2.3095238095238093</v>
-      </c>
-      <c r="J5">
-        <v>55173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A6" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2.2777777777777777</v>
-      </c>
-      <c r="D6" s="5">
-        <v>19683</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F6" s="5">
-        <v>14622</v>
-      </c>
-      <c r="G6">
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="H6">
-        <v>25189</v>
-      </c>
-      <c r="I6">
-        <v>2.4761904761904763</v>
-      </c>
-      <c r="J6">
-        <v>59494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A7" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="D7" s="5">
-        <v>31902</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="F7" s="5">
-        <v>28613</v>
-      </c>
-      <c r="G7">
-        <v>2.6</v>
-      </c>
-      <c r="H7">
-        <v>12630</v>
-      </c>
-      <c r="I7">
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="J7">
-        <v>73145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A8" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.5625</v>
-      </c>
-      <c r="D8" s="5">
-        <v>24224</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="F8" s="5">
-        <v>20895</v>
-      </c>
-      <c r="G8">
-        <v>2.6923076923076925</v>
-      </c>
-      <c r="H8">
-        <v>19964</v>
-      </c>
-      <c r="I8">
-        <v>2.5454545454545454</v>
-      </c>
-      <c r="J8">
-        <v>65083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A9" t="str">
-        <v>France</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="D9" s="5">
-        <v>19316</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2.6923076923076925</v>
-      </c>
-      <c r="F9" s="5">
-        <v>16285</v>
-      </c>
-      <c r="G9">
-        <v>2.5</v>
-      </c>
-      <c r="H9">
-        <v>22355</v>
-      </c>
-      <c r="I9">
-        <v>2.5319148936170213</v>
-      </c>
-      <c r="J9">
-        <v>57956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A10" t="str">
-        <v>France</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="D10" s="5">
-        <v>19984</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2.3636363636363638</v>
-      </c>
-      <c r="F10" s="5">
-        <v>13293</v>
-      </c>
-      <c r="G10">
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="H10">
-        <v>12557</v>
-      </c>
-      <c r="I10">
-        <v>2.6470588235294117</v>
-      </c>
-      <c r="J10">
-        <v>45834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A11" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2.5789473684210527</v>
-      </c>
-      <c r="D11" s="5">
-        <v>27841</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="F11" s="5">
-        <v>12362</v>
-      </c>
-      <c r="G11">
-        <v>2.5</v>
-      </c>
-      <c r="H11">
-        <v>14255</v>
-      </c>
-      <c r="I11">
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="J11">
-        <v>54458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A12" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.625</v>
-      </c>
-      <c r="D12" s="5">
-        <v>21915</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2.8235294117647061</v>
-      </c>
-      <c r="F12" s="5">
-        <v>20825</v>
-      </c>
-      <c r="G12">
-        <v>2.6</v>
-      </c>
-      <c r="H12">
-        <v>30797</v>
-      </c>
-      <c r="I12">
-        <v>2.6792452830188678</v>
-      </c>
-      <c r="J12">
-        <v>73537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A13" t="str">
-        <v>UK</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10185</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5">
-        <v>13422</v>
-      </c>
-      <c r="G13">
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="H13">
-        <v>11228</v>
-      </c>
-      <c r="I13">
-        <v>2.6818181818181817</v>
-      </c>
-      <c r="J13">
-        <v>34835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A14" t="str">
-        <v>UK</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2.6190476190476191</v>
-      </c>
-      <c r="D14" s="5">
-        <v>37232</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F14" s="5">
-        <v>19784</v>
-      </c>
-      <c r="G14">
-        <v>2.8</v>
-      </c>
-      <c r="H14">
-        <v>16598</v>
-      </c>
-      <c r="I14">
-        <v>2.6279069767441858</v>
-      </c>
-      <c r="J14">
-        <v>73614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A15" t="str">
-        <v>USA</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="D15" s="5">
-        <v>19344</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="F15" s="5">
-        <v>22090</v>
-      </c>
-      <c r="G15">
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="H15">
-        <v>23156</v>
-      </c>
-      <c r="I15">
-        <v>2.8</v>
-      </c>
-      <c r="J15">
-        <v>64590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A16" t="str">
-        <v>USA</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.7647058823529411</v>
-      </c>
-      <c r="D16" s="5">
-        <v>31248</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="F16" s="5">
-        <v>10276</v>
-      </c>
-      <c r="G16">
-        <v>2.5</v>
-      </c>
-      <c r="H16">
-        <v>32547</v>
-      </c>
-      <c r="I16">
-        <v>2.5434782608695654</v>
-      </c>
-      <c r="J16">
-        <v>74071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.9">
-      <c r="A17" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B17" t="str">
-        <v/>
-      </c>
-      <c r="C17" s="5">
-        <v>2.5527638190954773</v>
-      </c>
-      <c r="D17" s="5">
-        <v>280575</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.5547945205479454</v>
-      </c>
-      <c r="F17" s="5">
-        <v>209136</v>
-      </c>
-      <c r="G17">
-        <v>2.6193548387096772</v>
-      </c>
-      <c r="H17">
-        <v>242079</v>
-      </c>
-      <c r="I17">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="J17">
-        <v>731790</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:J17">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>C$4="quantity"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>C$4="sales"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971DC12F-04F3-4D59-BE51-46CA3043EEE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307591B0-D512-4EE9-8B91-E9F041A5F471}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="7.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="5"/>
-    <col min="7" max="7" width="7.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="5"/>
+    <col min="1" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A1" s="5" t="str" cm="1">
-        <f t="array" ref="A1:E10">_xlfn.PIVOTBY(sales[[#All],[country]],
-sales[[#All],[category]],
-sales[[#All],[sales]],
-_xleta.PERCENTOF, 3)</f>
+      <c r="A1" s="3" t="str" cm="1">
+        <f t="array" ref="A1:E10">_xlfn.PIVOTBY(sales[[#All],[country]], sales[[#All],[category]], sales[[#All],[sales]], _xleta.PERCENTOF, 3)</f>
         <v/>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="3" t="str">
         <v>category</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="3" t="str">
         <v/>
       </c>
-      <c r="D1" s="5" t="str">
+      <c r="D1" s="3" t="str">
         <v/>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="3" t="str">
         <v/>
       </c>
-      <c r="G1" s="5" t="str" cm="1">
-        <f t="array" ref="G1:K10">_xlfn.PIVOTBY(sales[[#All],[country]],
-sales[[#All],[category]],
-sales[[#All],[sales]],
-_xleta.PERCENTOF, 3, , , , , , 1)</f>
+      <c r="G1" s="3" t="str" cm="1">
+        <f t="array" ref="G1:K10">_xlfn.PIVOTBY(sales[[#All],[country]], sales[[#All],[category]], sales[[#All],[sales]], _xleta.PERCENTOF, 3, , , , , ,1)</f>
         <v/>
       </c>
-      <c r="H1" s="5" t="str">
+      <c r="H1" s="3" t="str">
         <v>category</v>
       </c>
-      <c r="I1" s="5" t="str">
+      <c r="I1" s="3" t="str">
         <v/>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="J1" s="3" t="str">
         <v/>
       </c>
-      <c r="K1" s="5" t="str">
+      <c r="K1" s="3" t="str">
         <v/>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="3" t="str">
         <v/>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="3" t="str">
         <v>Accessories</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="3" t="str">
         <v>Clothing</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="3" t="str">
         <v>Electronics</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="3" t="str">
         <v>Total</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="3" t="str">
         <v/>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="3" t="str">
         <v>Accessories</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="3" t="str">
         <v>Clothing</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="3" t="str">
         <v>Electronics</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="3" t="str">
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="3" t="str">
         <v>country</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="3" t="str">
         <v>sales</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="3" t="str">
         <v>sales</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="3" t="str">
         <v>sales</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="3" t="str">
         <v>sales</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="3" t="str">
         <v>country</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="3" t="str">
         <v>sales</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="3" t="str">
         <v>sales</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="3" t="str">
         <v>sales</v>
       </c>
-      <c r="K3" s="5" t="str">
+      <c r="K3" s="3" t="str">
         <v>sales</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="3" t="str">
         <v>Australia</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0.1332406664884612</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0.14962034274347794</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0.18998756604249026</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.15669386026045723</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="3" t="str">
         <v>Australia</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.32602230807468585</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.27288583463420163</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>0.40109185729111252</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="3" t="str">
         <v>Canada</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.20003920520359975</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.23672634075434168</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.13464199703402607</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.18889025540113968</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="3" t="str">
         <v>Canada</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>0.40603929739271349</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.35816187747779032</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>0.23579882512949618</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="3" t="str">
         <v>France</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.1400695001336541</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.14142950042077881</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.14421738358139286</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.14183030650869785</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="3" t="str">
         <v>France</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.3786491954908951</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.28497928509490317</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>0.33637151941420174</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="3" t="str">
         <v>Germany</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>0.17733582820992605</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.15868621375564226</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.18610453612250547</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.17490673553888411</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="3" t="str">
         <v>Germany</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>0.38873393491933278</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.25928356576428768</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>0.35198249931637954</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="3" t="str">
         <v>UK</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.16899937628085182</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.15877706372886544</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.11494594739733724</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.14819688708509271</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="3" t="str">
         <v>UK</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0.43722855904618763</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>0.30619000636243765</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>0.25658143459137472</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="3" t="str">
         <v>USA</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>0.18031542368350709</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>0.1547605385968939</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.23010256982224811</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>0.18948195520572841</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="3" t="str">
         <v>USA</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>0.36486106403386676</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.23341819257036947</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>0.40172074339576375</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.9">
-      <c r="A10" s="5" t="str">
+      <c r="A10" s="3" t="str">
         <v>Total</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="3" t="str">
         <v>Total</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>0.38340917476325176</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>0.28578690607961299</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>0.33080391915713525</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>1</v>
       </c>
     </row>
